--- a/codingTest/Algorithm.xlsx
+++ b/codingTest/Algorithm.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\TIL\codingTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taeyeon\Desktop\TIL\codingTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A1B0A8-8BE7-4D52-A8F3-B30AB1ABC343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="131">
   <si>
     <t>분류</t>
   </si>
@@ -61,9 +73,6 @@
   </si>
   <si>
     <t>그리디</t>
-  </si>
-  <si>
-    <t>2024.01.19</t>
   </si>
   <si>
     <t>DP</t>
@@ -386,6 +395,18 @@
   </si>
   <si>
     <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">644. </t>
+    </r>
+    <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
@@ -393,7 +414,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>브론즈</t>
+      <t>소수의</t>
     </r>
     <r>
       <rPr>
@@ -402,22 +423,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>5</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">644. </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -427,17 +433,11 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>소수의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+      <t>연속합</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -446,11 +446,17 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>연속합</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
+      <t>수학</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -459,7 +465,8 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>수학</t>
+      <t xml:space="preserve">
+정수론</t>
     </r>
     <r>
       <rPr>
@@ -479,16 +486,15 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
-정수론</t>
+두</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -498,16 +504,16 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">
-두</t>
+      <t>포인터</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
@@ -517,16 +523,16 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>포인터</t>
+      <t xml:space="preserve">
+소수</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -536,16 +542,16 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">
-소수</t>
+      <t>판정</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
@@ -555,16 +561,16 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>판정</t>
+      <t xml:space="preserve">
+에라토스테네스의</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -574,16 +580,26 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">
-에라토스테네스의</t>
+      <t>체</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/1644</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -593,27 +609,26 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
+      <t>시간</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1926. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">, </t>
+      <t>그림</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.acmicpc.net/problem/1644</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -622,20 +637,444 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>그래프</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이론</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그래프</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>탐색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>너비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우선</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>탐색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>깊이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우선</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>탐색</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>실버1</t>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/1926</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
       <t>시간</t>
     </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2178. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>미로 탐색</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그래프</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이론</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그래프</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>탐색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>너비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우선</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>탐색</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/2178</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>시간</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4179. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>불!</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드4</t>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/4179</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>시간</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1697. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>숨바꼭질</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>실버</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/1697</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;월 &quot;d&quot;일 &quot;dddd"/>
     <numFmt numFmtId="177" formatCode="m&quot;월 &quot;d&quot;일 &quot;aaaa"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -720,6 +1159,19 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="6">
@@ -853,14 +1305,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+  <cellXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -876,7 +1328,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -886,53 +1338,56 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="177" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1150,7 +1605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1158,29 +1613,29 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="38.5703125" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.3984375" customWidth="1"/>
+    <col min="4" max="4" width="38.59765625" customWidth="1"/>
+    <col min="7" max="7" width="26.1328125" customWidth="1"/>
+    <col min="8" max="8" width="19.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="31.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="31"/>
+      <c r="B1" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="1"/>
       <c r="K1" s="2" t="s">
         <v>0</v>
@@ -1188,7 +1643,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="13.15">
       <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -1225,31 +1680,31 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="20.25" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="32" t="s">
-        <v>110</v>
+      <c r="B3" s="26" t="s">
+        <v>109</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="H3" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="31" t="s">
         <v>113</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>115</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="8" t="s">
@@ -1263,18 +1718,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="52.5">
       <c r="A4" s="1"/>
-      <c r="B4" s="33"/>
+      <c r="B4" s="39">
+        <v>45387</v>
+      </c>
       <c r="C4" s="8">
         <v>2</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
+      <c r="D4" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>117</v>
+      </c>
       <c r="H4" s="10"/>
-      <c r="I4" s="11"/>
+      <c r="I4" s="31" t="s">
+        <v>118</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="8" t="s">
         <v>13</v>
@@ -1287,23 +1754,33 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="39.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="34" t="s">
-        <v>14</v>
+      <c r="B5" s="40">
+        <v>45387</v>
       </c>
       <c r="C5" s="8">
         <v>3</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
+      <c r="D5" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>121</v>
+      </c>
       <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
+      <c r="I5" s="31" t="s">
+        <v>122</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L5" s="8">
         <f t="shared" si="0"/>
@@ -1313,21 +1790,31 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="39.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="33"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="8">
         <v>4</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
+      <c r="D6" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>125</v>
+      </c>
       <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
+      <c r="I6" s="31" t="s">
+        <v>126</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L6" s="8">
         <f t="shared" si="0"/>
@@ -1337,23 +1824,33 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="39.4">
       <c r="A7" s="1"/>
       <c r="B7" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="8">
         <v>5</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="13"/>
+      <c r="D7" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>130</v>
+      </c>
       <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
+      <c r="I7" s="31" t="s">
+        <v>118</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L7" s="8">
         <f t="shared" si="0"/>
@@ -1363,10 +1860,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="12.75">
       <c r="A8" s="1"/>
       <c r="B8" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="8">
         <v>6</v>
@@ -1379,7 +1876,7 @@
       <c r="I8" s="11"/>
       <c r="J8" s="1"/>
       <c r="K8" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L8" s="8">
         <f t="shared" si="0"/>
@@ -1389,10 +1886,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="12.75">
       <c r="A9" s="1"/>
-      <c r="B9" s="34" t="s">
-        <v>21</v>
+      <c r="B9" s="27" t="s">
+        <v>20</v>
       </c>
       <c r="C9" s="8">
         <v>7</v>
@@ -1405,7 +1902,7 @@
       <c r="I9" s="11"/>
       <c r="J9" s="1"/>
       <c r="K9" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L9" s="8">
         <f t="shared" si="0"/>
@@ -1415,9 +1912,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="12.75">
       <c r="A10" s="1"/>
-      <c r="B10" s="35"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="8">
         <v>8</v>
       </c>
@@ -1429,7 +1926,7 @@
       <c r="I10" s="11"/>
       <c r="J10" s="1"/>
       <c r="K10" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L10" s="8">
         <f t="shared" si="0"/>
@@ -1439,9 +1936,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="12.75">
       <c r="A11" s="1"/>
-      <c r="B11" s="35"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="8">
         <v>9</v>
       </c>
@@ -1453,7 +1950,7 @@
       <c r="I11" s="11"/>
       <c r="J11" s="1"/>
       <c r="K11" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L11" s="8">
         <f t="shared" si="0"/>
@@ -1463,9 +1960,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="12.75">
       <c r="A12" s="1"/>
-      <c r="B12" s="33"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="8">
         <v>10</v>
       </c>
@@ -1477,7 +1974,7 @@
       <c r="I12" s="11"/>
       <c r="J12" s="1"/>
       <c r="K12" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L12" s="8">
         <f t="shared" si="0"/>
@@ -1487,10 +1984,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="12.75">
       <c r="A13" s="1"/>
-      <c r="B13" s="34" t="s">
-        <v>26</v>
+      <c r="B13" s="27" t="s">
+        <v>25</v>
       </c>
       <c r="C13" s="8">
         <v>11</v>
@@ -1503,7 +2000,7 @@
       <c r="I13" s="11"/>
       <c r="J13" s="1"/>
       <c r="K13" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L13" s="8">
         <f>COUNTIF(E:E,K13)</f>
@@ -1513,9 +2010,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="12.75">
       <c r="A14" s="1"/>
-      <c r="B14" s="33"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="8">
         <v>12</v>
       </c>
@@ -1527,7 +2024,7 @@
       <c r="I14" s="11"/>
       <c r="J14" s="1"/>
       <c r="K14" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L14" s="8">
         <f t="shared" si="0"/>
@@ -1537,10 +2034,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="12.75">
       <c r="A15" s="1"/>
-      <c r="B15" s="34" t="s">
-        <v>29</v>
+      <c r="B15" s="27" t="s">
+        <v>28</v>
       </c>
       <c r="C15" s="8">
         <v>13</v>
@@ -1553,7 +2050,7 @@
       <c r="I15" s="11"/>
       <c r="J15" s="1"/>
       <c r="K15" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L15" s="8">
         <f t="shared" si="0"/>
@@ -1563,9 +2060,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="12.75">
       <c r="A16" s="1"/>
-      <c r="B16" s="35"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="8">
         <v>14</v>
       </c>
@@ -1577,7 +2074,7 @@
       <c r="I16" s="11"/>
       <c r="J16" s="1"/>
       <c r="K16" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L16" s="8">
         <f t="shared" si="0"/>
@@ -1587,9 +2084,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="12.75">
       <c r="A17" s="1"/>
-      <c r="B17" s="33"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="8">
         <v>15</v>
       </c>
@@ -1601,7 +2098,7 @@
       <c r="I17" s="11"/>
       <c r="J17" s="1"/>
       <c r="K17" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L17" s="8">
         <f t="shared" si="0"/>
@@ -1611,10 +2108,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="12.75">
       <c r="A18" s="1"/>
-      <c r="B18" s="34" t="s">
-        <v>31</v>
+      <c r="B18" s="27" t="s">
+        <v>30</v>
       </c>
       <c r="C18" s="8">
         <v>16</v>
@@ -1627,7 +2124,7 @@
       <c r="I18" s="11"/>
       <c r="J18" s="1"/>
       <c r="K18" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L18" s="8">
         <f t="shared" si="0"/>
@@ -1637,9 +2134,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="12.75">
       <c r="A19" s="1"/>
-      <c r="B19" s="35"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="8">
         <v>17</v>
       </c>
@@ -1651,7 +2148,7 @@
       <c r="I19" s="11"/>
       <c r="J19" s="1"/>
       <c r="K19" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L19" s="8">
         <f t="shared" si="0"/>
@@ -1661,9 +2158,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="12.75">
       <c r="A20" s="1"/>
-      <c r="B20" s="35"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="8">
         <v>18</v>
       </c>
@@ -1683,9 +2180,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="12.75">
       <c r="A21" s="1"/>
-      <c r="B21" s="33"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="8">
         <v>19</v>
       </c>
@@ -1697,7 +2194,7 @@
       <c r="I21" s="11"/>
       <c r="J21" s="1"/>
       <c r="K21" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L21" s="8">
         <f t="shared" ref="L21:M21" si="1">SUM(L3:L20)</f>
@@ -1708,10 +2205,10 @@
         <v>485</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="12.75">
       <c r="A22" s="1"/>
       <c r="B22" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="8">
         <v>20</v>
@@ -1727,10 +2224,10 @@
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
     </row>
-    <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="12.75">
       <c r="A23" s="1"/>
-      <c r="B23" s="34" t="s">
-        <v>36</v>
+      <c r="B23" s="27" t="s">
+        <v>35</v>
       </c>
       <c r="C23" s="8">
         <v>21</v>
@@ -1746,9 +2243,9 @@
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
     </row>
-    <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="12.75">
       <c r="A24" s="1"/>
-      <c r="B24" s="33"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="8">
         <v>22</v>
       </c>
@@ -1763,10 +2260,10 @@
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
     </row>
-    <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="12.75">
       <c r="A25" s="1"/>
-      <c r="B25" s="34" t="s">
-        <v>37</v>
+      <c r="B25" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="C25" s="8">
         <v>23</v>
@@ -1782,9 +2279,9 @@
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
     </row>
-    <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="12.75">
       <c r="A26" s="1"/>
-      <c r="B26" s="33"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="8">
         <v>24</v>
       </c>
@@ -1799,10 +2296,10 @@
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
     </row>
-    <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="12.75">
       <c r="A27" s="1"/>
       <c r="B27" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="8">
         <v>25</v>
@@ -1818,10 +2315,10 @@
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
     </row>
-    <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="12.75">
       <c r="A28" s="1"/>
       <c r="B28" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="8">
         <v>26</v>
@@ -1837,10 +2334,10 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
     </row>
-    <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="12.75">
       <c r="A29" s="1"/>
-      <c r="B29" s="36" t="s">
-        <v>40</v>
+      <c r="B29" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="C29" s="8">
         <v>27</v>
@@ -1856,9 +2353,9 @@
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
     </row>
-    <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="12.75">
       <c r="A30" s="1"/>
-      <c r="B30" s="33"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="8">
         <v>28</v>
       </c>
@@ -1873,7 +2370,7 @@
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
     </row>
-    <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="12.75">
       <c r="A31" s="1"/>
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
@@ -1888,10 +2385,10 @@
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
     </row>
-    <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="12.75">
       <c r="A32" s="1"/>
       <c r="B32" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="8">
         <v>29</v>
@@ -1907,10 +2404,10 @@
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
     </row>
-    <row r="33" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="12.75">
       <c r="A33" s="1"/>
       <c r="B33" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="8">
         <v>30</v>
@@ -1926,10 +2423,10 @@
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
     </row>
-    <row r="34" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="12.75">
       <c r="A34" s="1"/>
-      <c r="B34" s="26" t="s">
-        <v>43</v>
+      <c r="B34" s="35" t="s">
+        <v>42</v>
       </c>
       <c r="C34" s="8">
         <v>31</v>
@@ -1945,9 +2442,9 @@
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
     </row>
-    <row r="35" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="12.75">
       <c r="A35" s="1"/>
-      <c r="B35" s="27"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="8">
         <v>32</v>
       </c>
@@ -1962,9 +2459,9 @@
       <c r="L35" s="14"/>
       <c r="M35" s="14"/>
     </row>
-    <row r="36" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="12.75">
       <c r="A36" s="1"/>
-      <c r="B36" s="27"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="8">
         <v>33</v>
       </c>
@@ -1979,9 +2476,9 @@
       <c r="L36" s="14"/>
       <c r="M36" s="14"/>
     </row>
-    <row r="37" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="12.75">
       <c r="A37" s="1"/>
-      <c r="B37" s="27"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="8">
         <v>34</v>
       </c>
@@ -1996,9 +2493,9 @@
       <c r="L37" s="14"/>
       <c r="M37" s="14"/>
     </row>
-    <row r="38" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="12.75">
       <c r="A38" s="1"/>
-      <c r="B38" s="28"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="8">
         <v>35</v>
       </c>
@@ -2013,10 +2510,10 @@
       <c r="L38" s="14"/>
       <c r="M38" s="14"/>
     </row>
-    <row r="39" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="12.75">
       <c r="A39" s="1"/>
       <c r="B39" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" s="8">
         <v>36</v>
@@ -2032,10 +2529,10 @@
       <c r="L39" s="14"/>
       <c r="M39" s="14"/>
     </row>
-    <row r="40" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="12.75">
       <c r="A40" s="1"/>
-      <c r="B40" s="26" t="s">
-        <v>45</v>
+      <c r="B40" s="35" t="s">
+        <v>44</v>
       </c>
       <c r="C40" s="8">
         <v>37</v>
@@ -2051,9 +2548,9 @@
       <c r="L40" s="14"/>
       <c r="M40" s="14"/>
     </row>
-    <row r="41" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="12.75">
       <c r="A41" s="1"/>
-      <c r="B41" s="28"/>
+      <c r="B41" s="37"/>
       <c r="C41" s="8">
         <v>38</v>
       </c>
@@ -2068,10 +2565,10 @@
       <c r="L41" s="14"/>
       <c r="M41" s="14"/>
     </row>
-    <row r="42" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="12.75">
       <c r="A42" s="1"/>
-      <c r="B42" s="26" t="s">
-        <v>46</v>
+      <c r="B42" s="35" t="s">
+        <v>45</v>
       </c>
       <c r="C42" s="8">
         <v>39</v>
@@ -2087,9 +2584,9 @@
       <c r="L42" s="14"/>
       <c r="M42" s="14"/>
     </row>
-    <row r="43" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="12.75">
       <c r="A43" s="1"/>
-      <c r="B43" s="28"/>
+      <c r="B43" s="37"/>
       <c r="C43" s="8">
         <v>40</v>
       </c>
@@ -2104,10 +2601,10 @@
       <c r="L43" s="14"/>
       <c r="M43" s="14"/>
     </row>
-    <row r="44" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="12.75">
       <c r="A44" s="1"/>
       <c r="B44" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" s="8">
         <v>41</v>
@@ -2123,10 +2620,10 @@
       <c r="L44" s="14"/>
       <c r="M44" s="14"/>
     </row>
-    <row r="45" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="12.75">
       <c r="A45" s="1"/>
-      <c r="B45" s="26" t="s">
-        <v>48</v>
+      <c r="B45" s="35" t="s">
+        <v>47</v>
       </c>
       <c r="C45" s="8">
         <v>42</v>
@@ -2142,9 +2639,9 @@
       <c r="L45" s="14"/>
       <c r="M45" s="14"/>
     </row>
-    <row r="46" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" ht="12.75">
       <c r="A46" s="1"/>
-      <c r="B46" s="27"/>
+      <c r="B46" s="36"/>
       <c r="C46" s="8">
         <v>43</v>
       </c>
@@ -2159,9 +2656,9 @@
       <c r="L46" s="14"/>
       <c r="M46" s="14"/>
     </row>
-    <row r="47" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="12.75">
       <c r="A47" s="1"/>
-      <c r="B47" s="28"/>
+      <c r="B47" s="37"/>
       <c r="C47" s="8">
         <v>44</v>
       </c>
@@ -2176,10 +2673,10 @@
       <c r="L47" s="14"/>
       <c r="M47" s="14"/>
     </row>
-    <row r="48" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="12.75">
       <c r="A48" s="1"/>
       <c r="B48" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C48" s="8">
         <v>45</v>
@@ -2195,10 +2692,10 @@
       <c r="L48" s="14"/>
       <c r="M48" s="14"/>
     </row>
-    <row r="49" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="12.75">
       <c r="A49" s="1"/>
       <c r="B49" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C49" s="8">
         <v>46</v>
@@ -2214,10 +2711,10 @@
       <c r="L49" s="14"/>
       <c r="M49" s="14"/>
     </row>
-    <row r="50" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="12.75">
       <c r="A50" s="1"/>
-      <c r="B50" s="26" t="s">
-        <v>51</v>
+      <c r="B50" s="35" t="s">
+        <v>50</v>
       </c>
       <c r="C50" s="8">
         <v>47</v>
@@ -2233,9 +2730,9 @@
       <c r="L50" s="14"/>
       <c r="M50" s="14"/>
     </row>
-    <row r="51" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="12.75">
       <c r="A51" s="1"/>
-      <c r="B51" s="27"/>
+      <c r="B51" s="36"/>
       <c r="C51" s="8">
         <v>48</v>
       </c>
@@ -2250,9 +2747,9 @@
       <c r="L51" s="14"/>
       <c r="M51" s="14"/>
     </row>
-    <row r="52" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="12.75">
       <c r="A52" s="1"/>
-      <c r="B52" s="27"/>
+      <c r="B52" s="36"/>
       <c r="C52" s="8">
         <v>49</v>
       </c>
@@ -2267,9 +2764,9 @@
       <c r="L52" s="14"/>
       <c r="M52" s="14"/>
     </row>
-    <row r="53" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" ht="12.75">
       <c r="A53" s="1"/>
-      <c r="B53" s="27"/>
+      <c r="B53" s="36"/>
       <c r="C53" s="8">
         <v>50</v>
       </c>
@@ -2284,9 +2781,9 @@
       <c r="L53" s="14"/>
       <c r="M53" s="14"/>
     </row>
-    <row r="54" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" ht="12.75">
       <c r="A54" s="1"/>
-      <c r="B54" s="28"/>
+      <c r="B54" s="37"/>
       <c r="C54" s="8">
         <v>51</v>
       </c>
@@ -2301,10 +2798,10 @@
       <c r="L54" s="14"/>
       <c r="M54" s="14"/>
     </row>
-    <row r="55" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" ht="12.75">
       <c r="A55" s="1"/>
       <c r="B55" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C55" s="8">
         <v>52</v>
@@ -2320,10 +2817,10 @@
       <c r="L55" s="14"/>
       <c r="M55" s="14"/>
     </row>
-    <row r="56" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" ht="12.75">
       <c r="A56" s="1"/>
-      <c r="B56" s="26" t="s">
-        <v>53</v>
+      <c r="B56" s="35" t="s">
+        <v>52</v>
       </c>
       <c r="C56" s="8">
         <v>53</v>
@@ -2339,9 +2836,9 @@
       <c r="L56" s="14"/>
       <c r="M56" s="14"/>
     </row>
-    <row r="57" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="12.75">
       <c r="A57" s="1"/>
-      <c r="B57" s="28"/>
+      <c r="B57" s="37"/>
       <c r="C57" s="8">
         <v>54</v>
       </c>
@@ -2356,10 +2853,10 @@
       <c r="L57" s="14"/>
       <c r="M57" s="14"/>
     </row>
-    <row r="58" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="12.75">
       <c r="A58" s="1"/>
-      <c r="B58" s="26" t="s">
-        <v>54</v>
+      <c r="B58" s="35" t="s">
+        <v>53</v>
       </c>
       <c r="C58" s="8">
         <v>55</v>
@@ -2370,14 +2867,14 @@
       <c r="G58" s="9"/>
       <c r="H58" s="10"/>
       <c r="I58" s="11"/>
-      <c r="J58" s="18"/>
+      <c r="J58" s="14"/>
       <c r="K58" s="14"/>
       <c r="L58" s="14"/>
       <c r="M58" s="14"/>
     </row>
-    <row r="59" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="12.75">
       <c r="A59" s="1"/>
-      <c r="B59" s="28"/>
+      <c r="B59" s="37"/>
       <c r="C59" s="8">
         <v>56</v>
       </c>
@@ -2387,15 +2884,15 @@
       <c r="G59" s="9"/>
       <c r="H59" s="10"/>
       <c r="I59" s="11"/>
-      <c r="J59" s="18"/>
+      <c r="J59" s="14"/>
       <c r="K59" s="14"/>
       <c r="L59" s="14"/>
       <c r="M59" s="14"/>
     </row>
-    <row r="60" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="12.75">
       <c r="A60" s="1"/>
-      <c r="B60" s="26" t="s">
-        <v>55</v>
+      <c r="B60" s="35" t="s">
+        <v>54</v>
       </c>
       <c r="C60" s="8">
         <v>57</v>
@@ -2406,14 +2903,14 @@
       <c r="G60" s="9"/>
       <c r="H60" s="10"/>
       <c r="I60" s="11"/>
-      <c r="J60" s="18"/>
+      <c r="J60" s="14"/>
       <c r="K60" s="14"/>
       <c r="L60" s="14"/>
       <c r="M60" s="14"/>
     </row>
-    <row r="61" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="12.75">
       <c r="A61" s="1"/>
-      <c r="B61" s="27"/>
+      <c r="B61" s="36"/>
       <c r="C61" s="8">
         <v>58</v>
       </c>
@@ -2423,14 +2920,14 @@
       <c r="G61" s="9"/>
       <c r="H61" s="10"/>
       <c r="I61" s="11"/>
-      <c r="J61" s="18"/>
+      <c r="J61" s="14"/>
       <c r="K61" s="14"/>
       <c r="L61" s="14"/>
       <c r="M61" s="14"/>
     </row>
-    <row r="62" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="12.75">
       <c r="A62" s="1"/>
-      <c r="B62" s="28"/>
+      <c r="B62" s="37"/>
       <c r="C62" s="8">
         <v>59</v>
       </c>
@@ -2445,10 +2942,10 @@
       <c r="L62" s="14"/>
       <c r="M62" s="14"/>
     </row>
-    <row r="63" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="12.75">
       <c r="A63" s="1"/>
       <c r="B63" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C63" s="8">
         <v>60</v>
@@ -2459,15 +2956,15 @@
       <c r="G63" s="9"/>
       <c r="H63" s="10"/>
       <c r="I63" s="11"/>
-      <c r="J63" s="18"/>
+      <c r="J63" s="14"/>
       <c r="K63" s="14"/>
       <c r="L63" s="14"/>
       <c r="M63" s="14"/>
     </row>
-    <row r="64" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="12.75">
       <c r="A64" s="1"/>
       <c r="B64" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C64" s="8">
         <v>61</v>
@@ -2479,14 +2976,14 @@
       <c r="H64" s="10"/>
       <c r="I64" s="11"/>
       <c r="J64" s="14"/>
-      <c r="K64" s="18"/>
+      <c r="K64" s="14"/>
       <c r="L64" s="14"/>
       <c r="M64" s="14"/>
     </row>
-    <row r="65" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" ht="12.75">
       <c r="A65" s="1"/>
       <c r="B65" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C65" s="8">
         <v>63</v>
@@ -2502,10 +2999,10 @@
       <c r="L65" s="14"/>
       <c r="M65" s="14"/>
     </row>
-    <row r="66" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" ht="12.75">
       <c r="A66" s="1"/>
       <c r="B66" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C66" s="8">
         <v>64</v>
@@ -2521,10 +3018,10 @@
       <c r="L66" s="14"/>
       <c r="M66" s="14"/>
     </row>
-    <row r="67" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="12.75">
       <c r="A67" s="1"/>
       <c r="B67" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C67" s="8">
         <v>65</v>
@@ -2540,10 +3037,10 @@
       <c r="L67" s="14"/>
       <c r="M67" s="14"/>
     </row>
-    <row r="68" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="12.75">
       <c r="A68" s="1"/>
       <c r="B68" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C68" s="8">
         <v>66</v>
@@ -2555,14 +3052,14 @@
       <c r="H68" s="10"/>
       <c r="I68" s="11"/>
       <c r="J68" s="14"/>
-      <c r="K68" s="18"/>
+      <c r="K68" s="14"/>
       <c r="L68" s="14"/>
       <c r="M68" s="14"/>
     </row>
-    <row r="69" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" ht="12.75">
       <c r="A69" s="1"/>
       <c r="B69" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C69" s="8">
         <v>67</v>
@@ -2578,10 +3075,10 @@
       <c r="L69" s="14"/>
       <c r="M69" s="14"/>
     </row>
-    <row r="70" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" ht="12.75">
       <c r="A70" s="1"/>
       <c r="B70" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C70" s="8">
         <v>68</v>
@@ -2597,10 +3094,10 @@
       <c r="L70" s="14"/>
       <c r="M70" s="14"/>
     </row>
-    <row r="71" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" ht="12.75">
       <c r="A71" s="1"/>
       <c r="B71" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C71" s="8">
         <v>69</v>
@@ -2616,10 +3113,10 @@
       <c r="L71" s="14"/>
       <c r="M71" s="14"/>
     </row>
-    <row r="72" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="12.75">
       <c r="A72" s="1"/>
       <c r="B72" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C72" s="8">
         <v>70</v>
@@ -2635,10 +3132,10 @@
       <c r="L72" s="14"/>
       <c r="M72" s="14"/>
     </row>
-    <row r="73" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" ht="12.75">
       <c r="A73" s="1"/>
       <c r="B73" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C73" s="8">
         <v>71</v>
@@ -2654,10 +3151,10 @@
       <c r="L73" s="14"/>
       <c r="M73" s="14"/>
     </row>
-    <row r="74" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" ht="12.75">
       <c r="A74" s="1"/>
       <c r="B74" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C74" s="8">
         <v>72</v>
@@ -2673,10 +3170,10 @@
       <c r="L74" s="14"/>
       <c r="M74" s="14"/>
     </row>
-    <row r="75" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" ht="12.75">
       <c r="A75" s="1"/>
       <c r="B75" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C75" s="8">
         <v>73</v>
@@ -2692,10 +3189,10 @@
       <c r="L75" s="14"/>
       <c r="M75" s="14"/>
     </row>
-    <row r="76" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" ht="12.75">
       <c r="A76" s="1"/>
       <c r="B76" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C76" s="8">
         <v>74</v>
@@ -2711,9 +3208,9 @@
       <c r="L76" s="14"/>
       <c r="M76" s="14"/>
     </row>
-    <row r="77" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" ht="12.75">
       <c r="A77" s="1"/>
-      <c r="B77" s="19"/>
+      <c r="B77" s="18"/>
       <c r="C77" s="16"/>
       <c r="D77" s="16"/>
       <c r="E77" s="16"/>
@@ -2726,10 +3223,10 @@
       <c r="L77" s="14"/>
       <c r="M77" s="14"/>
     </row>
-    <row r="78" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" ht="12.75">
       <c r="A78" s="1"/>
-      <c r="B78" s="20" t="s">
-        <v>70</v>
+      <c r="B78" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="C78" s="8">
         <v>75</v>
@@ -2745,10 +3242,10 @@
       <c r="L78" s="14"/>
       <c r="M78" s="14"/>
     </row>
-    <row r="79" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" ht="12.75">
       <c r="A79" s="1"/>
-      <c r="B79" s="21" t="s">
-        <v>71</v>
+      <c r="B79" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="C79" s="8">
         <v>76</v>
@@ -2764,10 +3261,10 @@
       <c r="L79" s="14"/>
       <c r="M79" s="14"/>
     </row>
-    <row r="80" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" ht="12.75">
       <c r="A80" s="1"/>
-      <c r="B80" s="21" t="s">
-        <v>71</v>
+      <c r="B80" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="C80" s="8">
         <v>77</v>
@@ -2783,10 +3280,10 @@
       <c r="L80" s="14"/>
       <c r="M80" s="14"/>
     </row>
-    <row r="81" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" ht="12.75">
       <c r="A81" s="1"/>
-      <c r="B81" s="21" t="s">
-        <v>71</v>
+      <c r="B81" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="C81" s="8">
         <v>78</v>
@@ -2802,10 +3299,10 @@
       <c r="L81" s="14"/>
       <c r="M81" s="14"/>
     </row>
-    <row r="82" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" ht="12.75">
       <c r="A82" s="1"/>
-      <c r="B82" s="21" t="s">
-        <v>72</v>
+      <c r="B82" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="C82" s="8">
         <v>79</v>
@@ -2821,10 +3318,10 @@
       <c r="L82" s="14"/>
       <c r="M82" s="14"/>
     </row>
-    <row r="83" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" ht="12.75">
       <c r="A83" s="1"/>
-      <c r="B83" s="21" t="s">
-        <v>72</v>
+      <c r="B83" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="C83" s="8">
         <v>80</v>
@@ -2840,10 +3337,10 @@
       <c r="L83" s="14"/>
       <c r="M83" s="14"/>
     </row>
-    <row r="84" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" ht="12.75">
       <c r="A84" s="1"/>
-      <c r="B84" s="21" t="s">
-        <v>73</v>
+      <c r="B84" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="C84" s="8">
         <v>81</v>
@@ -2854,15 +3351,15 @@
       <c r="G84" s="9"/>
       <c r="H84" s="10"/>
       <c r="I84" s="11"/>
-      <c r="J84" s="18"/>
+      <c r="J84" s="14"/>
       <c r="K84" s="14"/>
       <c r="L84" s="14"/>
       <c r="M84" s="14"/>
     </row>
-    <row r="85" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" ht="12.75">
       <c r="A85" s="1"/>
-      <c r="B85" s="21" t="s">
-        <v>73</v>
+      <c r="B85" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="C85" s="8">
         <v>82</v>
@@ -2873,15 +3370,15 @@
       <c r="G85" s="9"/>
       <c r="H85" s="10"/>
       <c r="I85" s="11"/>
-      <c r="J85" s="18"/>
+      <c r="J85" s="14"/>
       <c r="K85" s="14"/>
       <c r="L85" s="14"/>
       <c r="M85" s="14"/>
     </row>
-    <row r="86" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" ht="12.75">
       <c r="A86" s="1"/>
-      <c r="B86" s="21" t="s">
-        <v>74</v>
+      <c r="B86" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="C86" s="8">
         <v>83</v>
@@ -2897,10 +3394,10 @@
       <c r="L86" s="14"/>
       <c r="M86" s="14"/>
     </row>
-    <row r="87" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" ht="12.75">
       <c r="A87" s="1"/>
-      <c r="B87" s="21" t="s">
-        <v>74</v>
+      <c r="B87" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="C87" s="8">
         <v>84</v>
@@ -2916,10 +3413,10 @@
       <c r="L87" s="14"/>
       <c r="M87" s="14"/>
     </row>
-    <row r="88" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" ht="12.75">
       <c r="A88" s="1"/>
-      <c r="B88" s="21" t="s">
-        <v>75</v>
+      <c r="B88" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="C88" s="8">
         <v>85</v>
@@ -2932,13 +3429,13 @@
       <c r="I88" s="11"/>
       <c r="J88" s="14"/>
       <c r="K88" s="14"/>
-      <c r="L88" s="22"/>
+      <c r="L88" s="20"/>
       <c r="M88" s="14"/>
     </row>
-    <row r="89" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" ht="12.75">
       <c r="A89" s="1"/>
-      <c r="B89" s="21" t="s">
-        <v>75</v>
+      <c r="B89" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="C89" s="8">
         <v>86</v>
@@ -2949,15 +3446,15 @@
       <c r="G89" s="9"/>
       <c r="H89" s="10"/>
       <c r="I89" s="11"/>
-      <c r="J89" s="18"/>
+      <c r="J89" s="14"/>
       <c r="K89" s="14"/>
       <c r="L89" s="14"/>
       <c r="M89" s="14"/>
     </row>
-    <row r="90" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" ht="12.75">
       <c r="A90" s="1"/>
-      <c r="B90" s="21" t="s">
-        <v>76</v>
+      <c r="B90" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="C90" s="8">
         <v>87</v>
@@ -2969,14 +3466,14 @@
       <c r="H90" s="10"/>
       <c r="I90" s="11"/>
       <c r="J90" s="14"/>
-      <c r="K90" s="18"/>
+      <c r="K90" s="14"/>
       <c r="L90" s="14"/>
       <c r="M90" s="14"/>
     </row>
-    <row r="91" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" ht="12.75">
       <c r="A91" s="1"/>
-      <c r="B91" s="21" t="s">
-        <v>76</v>
+      <c r="B91" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="C91" s="8">
         <v>88</v>
@@ -2992,10 +3489,10 @@
       <c r="L91" s="14"/>
       <c r="M91" s="14"/>
     </row>
-    <row r="92" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" ht="12.75">
       <c r="A92" s="1"/>
-      <c r="B92" s="21" t="s">
-        <v>77</v>
+      <c r="B92" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="C92" s="8">
         <v>89</v>
@@ -3011,10 +3508,10 @@
       <c r="L92" s="14"/>
       <c r="M92" s="14"/>
     </row>
-    <row r="93" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" ht="12.75">
       <c r="A93" s="1"/>
-      <c r="B93" s="21" t="s">
-        <v>78</v>
+      <c r="B93" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="C93" s="8">
         <v>90</v>
@@ -3030,10 +3527,10 @@
       <c r="L93" s="14"/>
       <c r="M93" s="14"/>
     </row>
-    <row r="94" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" ht="12.75">
       <c r="A94" s="1"/>
-      <c r="B94" s="21" t="s">
-        <v>78</v>
+      <c r="B94" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="C94" s="8">
         <v>91</v>
@@ -3049,10 +3546,10 @@
       <c r="L94" s="14"/>
       <c r="M94" s="14"/>
     </row>
-    <row r="95" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" ht="12.75">
       <c r="A95" s="1"/>
-      <c r="B95" s="21" t="s">
-        <v>79</v>
+      <c r="B95" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="C95" s="8">
         <v>92</v>
@@ -3068,10 +3565,10 @@
       <c r="L95" s="14"/>
       <c r="M95" s="14"/>
     </row>
-    <row r="96" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" ht="12.75">
       <c r="A96" s="1"/>
-      <c r="B96" s="21" t="s">
-        <v>79</v>
+      <c r="B96" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="C96" s="8">
         <v>93</v>
@@ -3082,15 +3579,15 @@
       <c r="G96" s="9"/>
       <c r="H96" s="10"/>
       <c r="I96" s="11"/>
-      <c r="J96" s="18"/>
+      <c r="J96" s="14"/>
       <c r="K96" s="14"/>
       <c r="L96" s="14"/>
       <c r="M96" s="14"/>
     </row>
-    <row r="97" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" ht="12.75">
       <c r="A97" s="1"/>
-      <c r="B97" s="21" t="s">
-        <v>80</v>
+      <c r="B97" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="C97" s="8">
         <v>94</v>
@@ -3106,10 +3603,10 @@
       <c r="L97" s="14"/>
       <c r="M97" s="14"/>
     </row>
-    <row r="98" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" ht="12.75">
       <c r="A98" s="1"/>
-      <c r="B98" s="21" t="s">
-        <v>81</v>
+      <c r="B98" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="C98" s="8">
         <v>95</v>
@@ -3125,10 +3622,10 @@
       <c r="L98" s="14"/>
       <c r="M98" s="14"/>
     </row>
-    <row r="99" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" ht="12.75">
       <c r="A99" s="1"/>
-      <c r="B99" s="21" t="s">
-        <v>82</v>
+      <c r="B99" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="C99" s="8">
         <v>96</v>
@@ -3144,10 +3641,10 @@
       <c r="L99" s="14"/>
       <c r="M99" s="14"/>
     </row>
-    <row r="100" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" ht="12.75">
       <c r="A100" s="1"/>
-      <c r="B100" s="21" t="s">
-        <v>82</v>
+      <c r="B100" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="C100" s="8">
         <v>97</v>
@@ -3160,13 +3657,13 @@
       <c r="I100" s="11"/>
       <c r="J100" s="14"/>
       <c r="K100" s="14"/>
-      <c r="L100" s="22"/>
+      <c r="L100" s="20"/>
       <c r="M100" s="14"/>
     </row>
-    <row r="101" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" ht="12.75">
       <c r="A101" s="1"/>
-      <c r="B101" s="21" t="s">
-        <v>83</v>
+      <c r="B101" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="C101" s="8">
         <v>98</v>
@@ -3182,10 +3679,10 @@
       <c r="L101" s="14"/>
       <c r="M101" s="14"/>
     </row>
-    <row r="102" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" ht="12.75">
       <c r="A102" s="1"/>
-      <c r="B102" s="21" t="s">
-        <v>84</v>
+      <c r="B102" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="C102" s="8">
         <v>99</v>
@@ -3201,10 +3698,10 @@
       <c r="L102" s="14"/>
       <c r="M102" s="14"/>
     </row>
-    <row r="103" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" ht="12.75">
       <c r="A103" s="1"/>
-      <c r="B103" s="21" t="s">
-        <v>85</v>
+      <c r="B103" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="C103" s="8">
         <v>100</v>
@@ -3215,15 +3712,15 @@
       <c r="G103" s="9"/>
       <c r="H103" s="10"/>
       <c r="I103" s="11"/>
-      <c r="J103" s="18"/>
+      <c r="J103" s="14"/>
       <c r="K103" s="14"/>
       <c r="L103" s="14"/>
       <c r="M103" s="14"/>
     </row>
-    <row r="104" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" ht="12.75">
       <c r="A104" s="1"/>
-      <c r="B104" s="21" t="s">
-        <v>86</v>
+      <c r="B104" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="C104" s="8">
         <v>101</v>
@@ -3239,10 +3736,10 @@
       <c r="L104" s="14"/>
       <c r="M104" s="14"/>
     </row>
-    <row r="105" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" ht="12.75">
       <c r="A105" s="1"/>
-      <c r="B105" s="21" t="s">
-        <v>87</v>
+      <c r="B105" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="C105" s="8">
         <v>102</v>
@@ -3258,10 +3755,10 @@
       <c r="L105" s="14"/>
       <c r="M105" s="14"/>
     </row>
-    <row r="106" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" ht="12.75">
       <c r="A106" s="1"/>
-      <c r="B106" s="21" t="s">
-        <v>88</v>
+      <c r="B106" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="C106" s="8">
         <v>103</v>
@@ -3277,10 +3774,10 @@
       <c r="L106" s="14"/>
       <c r="M106" s="14"/>
     </row>
-    <row r="107" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" ht="12.75">
       <c r="A107" s="1"/>
-      <c r="B107" s="21" t="s">
-        <v>89</v>
+      <c r="B107" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="C107" s="8">
         <v>104</v>
@@ -3296,10 +3793,10 @@
       <c r="L107" s="14"/>
       <c r="M107" s="14"/>
     </row>
-    <row r="108" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" ht="12.75">
       <c r="A108" s="1"/>
-      <c r="B108" s="21" t="s">
-        <v>90</v>
+      <c r="B108" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="C108" s="8">
         <v>105</v>
@@ -3310,15 +3807,15 @@
       <c r="G108" s="9"/>
       <c r="H108" s="10"/>
       <c r="I108" s="11"/>
-      <c r="J108" s="18"/>
+      <c r="J108" s="14"/>
       <c r="K108" s="14"/>
       <c r="L108" s="14"/>
       <c r="M108" s="14"/>
     </row>
-    <row r="109" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" ht="12.75">
       <c r="A109" s="1"/>
-      <c r="B109" s="21" t="s">
-        <v>91</v>
+      <c r="B109" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="C109" s="8">
         <v>106</v>
@@ -3329,15 +3826,15 @@
       <c r="G109" s="9"/>
       <c r="H109" s="10"/>
       <c r="I109" s="11"/>
-      <c r="J109" s="18"/>
+      <c r="J109" s="14"/>
       <c r="K109" s="14"/>
-      <c r="L109" s="18"/>
+      <c r="L109" s="14"/>
       <c r="M109" s="14"/>
     </row>
-    <row r="110" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" ht="12.75">
       <c r="A110" s="1"/>
-      <c r="B110" s="21" t="s">
-        <v>92</v>
+      <c r="B110" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="C110" s="8">
         <v>107</v>
@@ -3353,10 +3850,10 @@
       <c r="L110" s="14"/>
       <c r="M110" s="14"/>
     </row>
-    <row r="111" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" ht="12.75">
       <c r="A111" s="1"/>
-      <c r="B111" s="21" t="s">
-        <v>93</v>
+      <c r="B111" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="C111" s="8">
         <v>108</v>
@@ -3372,10 +3869,10 @@
       <c r="L111" s="14"/>
       <c r="M111" s="14"/>
     </row>
-    <row r="112" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" ht="12.75">
       <c r="A112" s="1"/>
-      <c r="B112" s="21" t="s">
-        <v>93</v>
+      <c r="B112" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="C112" s="8">
         <v>109</v>
@@ -3391,10 +3888,10 @@
       <c r="L112" s="14"/>
       <c r="M112" s="14"/>
     </row>
-    <row r="113" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" ht="12.75">
       <c r="A113" s="1"/>
-      <c r="B113" s="21" t="s">
-        <v>94</v>
+      <c r="B113" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="C113" s="8">
         <v>110</v>
@@ -3410,10 +3907,10 @@
       <c r="L113" s="14"/>
       <c r="M113" s="14"/>
     </row>
-    <row r="114" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" ht="12.75">
       <c r="A114" s="1"/>
-      <c r="B114" s="21" t="s">
-        <v>94</v>
+      <c r="B114" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="C114" s="8">
         <v>111</v>
@@ -3429,10 +3926,10 @@
       <c r="L114" s="14"/>
       <c r="M114" s="14"/>
     </row>
-    <row r="115" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" ht="12.75">
       <c r="A115" s="1"/>
-      <c r="B115" s="21" t="s">
-        <v>94</v>
+      <c r="B115" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="C115" s="8">
         <v>112</v>
@@ -3448,10 +3945,10 @@
       <c r="L115" s="14"/>
       <c r="M115" s="14"/>
     </row>
-    <row r="116" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" ht="12.75">
       <c r="A116" s="1"/>
-      <c r="B116" s="21" t="s">
-        <v>94</v>
+      <c r="B116" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="C116" s="8">
         <v>113</v>
@@ -3467,10 +3964,10 @@
       <c r="L116" s="14"/>
       <c r="M116" s="14"/>
     </row>
-    <row r="117" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" ht="12.75">
       <c r="A117" s="1"/>
-      <c r="B117" s="21" t="s">
-        <v>95</v>
+      <c r="B117" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="C117" s="8">
         <v>114</v>
@@ -3486,10 +3983,10 @@
       <c r="L117" s="14"/>
       <c r="M117" s="14"/>
     </row>
-    <row r="118" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" ht="12.75">
       <c r="A118" s="1"/>
-      <c r="B118" s="21" t="s">
-        <v>95</v>
+      <c r="B118" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="C118" s="8">
         <v>115</v>
@@ -3505,10 +4002,10 @@
       <c r="L118" s="14"/>
       <c r="M118" s="14"/>
     </row>
-    <row r="119" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" ht="12.75">
       <c r="A119" s="1"/>
-      <c r="B119" s="21" t="s">
-        <v>96</v>
+      <c r="B119" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="C119" s="8">
         <v>116</v>
@@ -3524,10 +4021,10 @@
       <c r="L119" s="14"/>
       <c r="M119" s="14"/>
     </row>
-    <row r="120" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" ht="12.75">
       <c r="A120" s="1"/>
-      <c r="B120" s="21" t="s">
-        <v>97</v>
+      <c r="B120" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="C120" s="8">
         <v>117</v>
@@ -3543,10 +4040,10 @@
       <c r="L120" s="14"/>
       <c r="M120" s="14"/>
     </row>
-    <row r="121" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" ht="12.75">
       <c r="A121" s="1"/>
-      <c r="B121" s="21" t="s">
-        <v>98</v>
+      <c r="B121" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="C121" s="8">
         <v>118</v>
@@ -3562,10 +4059,10 @@
       <c r="L121" s="14"/>
       <c r="M121" s="14"/>
     </row>
-    <row r="122" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" ht="12.75">
       <c r="A122" s="1"/>
-      <c r="B122" s="21" t="s">
-        <v>99</v>
+      <c r="B122" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="C122" s="8">
         <v>119</v>
@@ -3581,10 +4078,10 @@
       <c r="L122" s="14"/>
       <c r="M122" s="14"/>
     </row>
-    <row r="123" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" ht="12.75">
       <c r="A123" s="1"/>
-      <c r="B123" s="21" t="s">
-        <v>100</v>
+      <c r="B123" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="C123" s="8">
         <v>120</v>
@@ -3600,7 +4097,7 @@
       <c r="L123" s="14"/>
       <c r="M123" s="14"/>
     </row>
-    <row r="124" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" ht="12.75">
       <c r="A124" s="1"/>
       <c r="B124" s="15"/>
       <c r="C124" s="16"/>
@@ -3615,10 +4112,10 @@
       <c r="L124" s="14"/>
       <c r="M124" s="14"/>
     </row>
-    <row r="125" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" ht="12.75">
       <c r="A125" s="1"/>
-      <c r="B125" s="21" t="s">
-        <v>100</v>
+      <c r="B125" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="C125" s="8">
         <v>121</v>
@@ -3634,10 +4131,10 @@
       <c r="L125" s="14"/>
       <c r="M125" s="14"/>
     </row>
-    <row r="126" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" ht="12.75">
       <c r="A126" s="1"/>
-      <c r="B126" s="21" t="s">
-        <v>101</v>
+      <c r="B126" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="C126" s="8">
         <v>122</v>
@@ -3653,10 +4150,10 @@
       <c r="L126" s="14"/>
       <c r="M126" s="14"/>
     </row>
-    <row r="127" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" ht="12.75">
       <c r="A127" s="1"/>
-      <c r="B127" s="21" t="s">
-        <v>101</v>
+      <c r="B127" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="C127" s="8">
         <v>123</v>
@@ -3664,18 +4161,18 @@
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
-      <c r="G127" s="23"/>
+      <c r="G127" s="21"/>
       <c r="H127" s="10"/>
       <c r="I127" s="11"/>
-      <c r="J127" s="18"/>
+      <c r="J127" s="14"/>
       <c r="K127" s="14"/>
       <c r="L127" s="14"/>
       <c r="M127" s="14"/>
     </row>
-    <row r="128" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" ht="12.75">
       <c r="A128" s="1"/>
-      <c r="B128" s="21" t="s">
-        <v>102</v>
+      <c r="B128" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="C128" s="8">
         <v>124</v>
@@ -3683,7 +4180,7 @@
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
-      <c r="G128" s="23"/>
+      <c r="G128" s="21"/>
       <c r="H128" s="10"/>
       <c r="I128" s="11"/>
       <c r="J128" s="14"/>
@@ -3691,10 +4188,10 @@
       <c r="L128" s="14"/>
       <c r="M128" s="14"/>
     </row>
-    <row r="129" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" ht="12.75">
       <c r="A129" s="1"/>
-      <c r="B129" s="21" t="s">
-        <v>103</v>
+      <c r="B129" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="C129" s="8">
         <v>125</v>
@@ -3704,16 +4201,16 @@
       <c r="F129" s="10"/>
       <c r="G129" s="10"/>
       <c r="H129" s="10"/>
-      <c r="I129" s="24"/>
+      <c r="I129" s="22"/>
       <c r="J129" s="14"/>
       <c r="K129" s="14"/>
       <c r="L129" s="14"/>
       <c r="M129" s="14"/>
     </row>
-    <row r="130" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" ht="12.75">
       <c r="A130" s="1"/>
-      <c r="B130" s="21" t="s">
-        <v>103</v>
+      <c r="B130" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="C130" s="8">
         <v>126</v>
@@ -3723,16 +4220,16 @@
       <c r="F130" s="10"/>
       <c r="G130" s="10"/>
       <c r="H130" s="10"/>
-      <c r="I130" s="24"/>
+      <c r="I130" s="22"/>
       <c r="J130" s="14"/>
       <c r="K130" s="14"/>
       <c r="L130" s="14"/>
       <c r="M130" s="14"/>
     </row>
-    <row r="131" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" ht="12.75">
       <c r="A131" s="1"/>
-      <c r="B131" s="21" t="s">
-        <v>104</v>
+      <c r="B131" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="C131" s="8">
         <v>127</v>
@@ -3742,16 +4239,16 @@
       <c r="F131" s="10"/>
       <c r="G131" s="10"/>
       <c r="H131" s="10"/>
-      <c r="I131" s="24"/>
+      <c r="I131" s="22"/>
       <c r="J131" s="14"/>
       <c r="K131" s="14"/>
       <c r="L131" s="14"/>
       <c r="M131" s="14"/>
     </row>
-    <row r="132" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" ht="12.75">
       <c r="A132" s="1"/>
-      <c r="B132" s="21" t="s">
-        <v>105</v>
+      <c r="B132" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="C132" s="8">
         <v>128</v>
@@ -3761,16 +4258,16 @@
       <c r="F132" s="10"/>
       <c r="G132" s="10"/>
       <c r="H132" s="10"/>
-      <c r="I132" s="24"/>
+      <c r="I132" s="22"/>
       <c r="J132" s="14"/>
       <c r="K132" s="14"/>
       <c r="L132" s="14"/>
       <c r="M132" s="14"/>
     </row>
-    <row r="133" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" ht="12.75">
       <c r="A133" s="1"/>
-      <c r="B133" s="21" t="s">
-        <v>106</v>
+      <c r="B133" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="C133" s="8">
         <v>129</v>
@@ -3780,16 +4277,16 @@
       <c r="F133" s="10"/>
       <c r="G133" s="10"/>
       <c r="H133" s="10"/>
-      <c r="I133" s="24"/>
+      <c r="I133" s="22"/>
       <c r="J133" s="14"/>
       <c r="K133" s="14"/>
       <c r="L133" s="14"/>
       <c r="M133" s="14"/>
     </row>
-    <row r="134" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" ht="12.75">
       <c r="A134" s="1"/>
-      <c r="B134" s="21" t="s">
-        <v>107</v>
+      <c r="B134" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="C134" s="8">
         <v>130</v>
@@ -3799,7 +4296,7 @@
       <c r="F134" s="10"/>
       <c r="G134" s="10"/>
       <c r="H134" s="10"/>
-      <c r="I134" s="24"/>
+      <c r="I134" s="22"/>
       <c r="J134" s="14"/>
       <c r="K134" s="14"/>
       <c r="L134" s="14"/>
@@ -3819,14 +4316,18 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F30" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"브론즈5, 브론즈4, 브론즈3, 브론즈2, 브론즈1, 실버5, 실버4, 실버3, 실버2, 실버1, 골드5, 골드4, 골드3, 골드2, 골드1, 플래티넘5, 플래티넘4, 플래티넘3, 플래티넘2, 플래티넘1, 다이아5, 다이아4, 다이아3, 다이아2, 다이아1, 루비"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{87C74199-F485-458A-B2A6-A8D5E51761C4}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{6DEDBC63-47F0-4182-B687-AAF3E5463F94}"/>
+    <hyperlink ref="G6" r:id="rId4" xr:uid="{4D4187D9-4C4F-4F5E-8ACA-AAE2096D90ED}"/>
+    <hyperlink ref="G7" r:id="rId5" xr:uid="{4351EF49-235B-4696-9204-E090215258C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/codingTest/Algorithm.xlsx
+++ b/codingTest/Algorithm.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taeyeon\Desktop\TIL\codingTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\TIL\codingTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A1B0A8-8BE7-4D52-A8F3-B30AB1ABC343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="24195" windowHeight="14475"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="148">
   <si>
     <t>분류</t>
   </si>
@@ -81,19 +80,10 @@
     <t>이분탐색</t>
   </si>
   <si>
-    <t>2024.01.20</t>
-  </si>
-  <si>
     <t>정렬</t>
   </si>
   <si>
-    <t>2024.01.21</t>
-  </si>
-  <si>
     <t>DFS / BFS</t>
-  </si>
-  <si>
-    <t>2024.01.22</t>
   </si>
   <si>
     <t>그래프</t>
@@ -493,6 +483,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -531,6 +522,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -569,6 +561,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -644,6 +637,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -662,6 +656,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -681,6 +676,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -699,6 +695,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -718,6 +715,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -736,6 +734,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -754,6 +753,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -773,6 +773,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -791,6 +792,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -859,6 +861,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -877,6 +880,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -896,6 +900,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -914,6 +919,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -933,6 +939,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -951,6 +958,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1063,13 +1071,493 @@
   </si>
   <si>
     <t>https://www.acmicpc.net/problem/1697</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">0989. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정렬하기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>정렬</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>브론즈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/10989</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">562. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나이트의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이동</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그래프</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이론
+그래프</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>탐색
+너비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우선</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>탐색</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실버</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/7562</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">292. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>벌집</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>수학</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>브론즈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/2292</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">275. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부녀회장이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>될테야</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수학
+구현
+다이나믹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로그래밍</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>브론즈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/2775</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m&quot;월 &quot;d&quot;일 &quot;dddd"/>
     <numFmt numFmtId="177" formatCode="m&quot;월 &quot;d&quot;일 &quot;aaaa"/>
@@ -1206,7 +1694,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1300,12 +1788,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1354,9 +1866,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1372,6 +1881,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1380,15 +1895,23 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1605,7 +2128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1613,29 +2136,29 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.3984375" customWidth="1"/>
-    <col min="4" max="4" width="38.59765625" customWidth="1"/>
-    <col min="7" max="7" width="26.1328125" customWidth="1"/>
-    <col min="8" max="8" width="19.73046875" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="38.5703125" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.15">
+    <row r="1" spans="1:13" ht="31.5">
       <c r="A1" s="1"/>
-      <c r="B1" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35"/>
       <c r="J1" s="1"/>
       <c r="K1" s="2" t="s">
         <v>0</v>
@@ -1643,7 +2166,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:13" ht="13.15">
+    <row r="2" spans="1:13" ht="12.75">
       <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -1682,29 +2205,29 @@
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="26" t="s">
-        <v>109</v>
+      <c r="B3" s="41" t="s">
+        <v>106</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="30" t="s">
         <v>110</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="I3" s="31" t="s">
-        <v>113</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="8" t="s">
@@ -1718,7 +2241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="52.5">
+    <row r="4" spans="1:13" ht="76.5">
       <c r="A4" s="1"/>
       <c r="B4" s="39">
         <v>45387</v>
@@ -1726,21 +2249,21 @@
       <c r="C4" s="8">
         <v>2</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="30" t="s">
         <v>115</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="31" t="s">
-        <v>118</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="8" t="s">
@@ -1754,29 +2277,27 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="39.4">
+    <row r="5" spans="1:13" ht="51">
       <c r="A5" s="1"/>
-      <c r="B5" s="40">
-        <v>45387</v>
-      </c>
+      <c r="B5" s="39"/>
       <c r="C5" s="8">
         <v>3</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="30" t="s">
         <v>119</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="31" t="s">
-        <v>122</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="8" t="s">
@@ -1790,27 +2311,27 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="39.4">
+    <row r="6" spans="1:13" ht="51">
       <c r="A6" s="1"/>
-      <c r="B6" s="25"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="8">
         <v>4</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="30" t="s">
         <v>123</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="31" t="s">
-        <v>126</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="8" t="s">
@@ -1824,37 +2345,35 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="39.4">
+    <row r="7" spans="1:13" ht="51">
       <c r="A7" s="1"/>
-      <c r="B7" s="12" t="s">
-        <v>16</v>
-      </c>
+      <c r="B7" s="40"/>
       <c r="C7" s="8">
         <v>5</v>
       </c>
-      <c r="D7" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>130</v>
+      <c r="D7" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>127</v>
       </c>
       <c r="H7" s="10"/>
-      <c r="I7" s="31" t="s">
-        <v>118</v>
+      <c r="I7" s="30" t="s">
+        <v>115</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L7" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="11">
         <v>25</v>
@@ -1862,21 +2381,31 @@
     </row>
     <row r="8" spans="1:13" ht="12.75">
       <c r="A8" s="1"/>
-      <c r="B8" s="12" t="s">
-        <v>18</v>
+      <c r="B8" s="42">
+        <v>45391</v>
       </c>
       <c r="C8" s="8">
         <v>6</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>131</v>
+      </c>
       <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="I8" s="30" t="s">
+        <v>132</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L8" s="8">
         <f t="shared" si="0"/>
@@ -1886,23 +2415,31 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="12.75">
+    <row r="9" spans="1:13" ht="51">
       <c r="A9" s="1"/>
-      <c r="B9" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="B9" s="26"/>
       <c r="C9" s="8">
         <v>7</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="13"/>
+      <c r="D9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
+      <c r="I9" s="30" t="s">
+        <v>137</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L9" s="8">
         <f t="shared" si="0"/>
@@ -1918,15 +2455,25 @@
       <c r="C10" s="8">
         <v>8</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="13"/>
+      <c r="D10" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>141</v>
+      </c>
       <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="I10" s="30" t="s">
+        <v>142</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L10" s="8">
         <f t="shared" si="0"/>
@@ -1936,21 +2483,31 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="12.75">
+    <row r="11" spans="1:13" ht="49.5">
       <c r="A11" s="1"/>
       <c r="B11" s="24"/>
       <c r="C11" s="8">
         <v>9</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="13"/>
+      <c r="D11" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>146</v>
+      </c>
       <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
+      <c r="I11" s="30" t="s">
+        <v>147</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L11" s="8">
         <f t="shared" si="0"/>
@@ -1974,7 +2531,7 @@
       <c r="I12" s="11"/>
       <c r="J12" s="1"/>
       <c r="K12" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L12" s="8">
         <f t="shared" si="0"/>
@@ -1986,8 +2543,8 @@
     </row>
     <row r="13" spans="1:13" ht="12.75">
       <c r="A13" s="1"/>
-      <c r="B13" s="27" t="s">
-        <v>25</v>
+      <c r="B13" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="C13" s="8">
         <v>11</v>
@@ -2000,11 +2557,11 @@
       <c r="I13" s="11"/>
       <c r="J13" s="1"/>
       <c r="K13" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L13" s="8">
         <f>COUNTIF(E:E,K13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="11">
         <v>30</v>
@@ -2024,7 +2581,7 @@
       <c r="I14" s="11"/>
       <c r="J14" s="1"/>
       <c r="K14" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L14" s="8">
         <f t="shared" si="0"/>
@@ -2036,8 +2593,8 @@
     </row>
     <row r="15" spans="1:13" ht="12.75">
       <c r="A15" s="1"/>
-      <c r="B15" s="27" t="s">
-        <v>28</v>
+      <c r="B15" s="26" t="s">
+        <v>25</v>
       </c>
       <c r="C15" s="8">
         <v>13</v>
@@ -2050,11 +2607,11 @@
       <c r="I15" s="11"/>
       <c r="J15" s="1"/>
       <c r="K15" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L15" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="11">
         <v>20</v>
@@ -2074,7 +2631,7 @@
       <c r="I16" s="11"/>
       <c r="J16" s="1"/>
       <c r="K16" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L16" s="8">
         <f t="shared" si="0"/>
@@ -2098,7 +2655,7 @@
       <c r="I17" s="11"/>
       <c r="J17" s="1"/>
       <c r="K17" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L17" s="8">
         <f t="shared" si="0"/>
@@ -2110,8 +2667,8 @@
     </row>
     <row r="18" spans="1:13" ht="12.75">
       <c r="A18" s="1"/>
-      <c r="B18" s="27" t="s">
-        <v>30</v>
+      <c r="B18" s="26" t="s">
+        <v>27</v>
       </c>
       <c r="C18" s="8">
         <v>16</v>
@@ -2124,7 +2681,7 @@
       <c r="I18" s="11"/>
       <c r="J18" s="1"/>
       <c r="K18" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L18" s="8">
         <f t="shared" si="0"/>
@@ -2148,7 +2705,7 @@
       <c r="I19" s="11"/>
       <c r="J19" s="1"/>
       <c r="K19" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L19" s="8">
         <f t="shared" si="0"/>
@@ -2194,11 +2751,11 @@
       <c r="I21" s="11"/>
       <c r="J21" s="1"/>
       <c r="K21" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L21" s="8">
         <f t="shared" ref="L21:M21" si="1">SUM(L3:L20)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M21" s="11">
         <f t="shared" si="1"/>
@@ -2208,7 +2765,7 @@
     <row r="22" spans="1:13" ht="12.75">
       <c r="A22" s="1"/>
       <c r="B22" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C22" s="8">
         <v>20</v>
@@ -2226,8 +2783,8 @@
     </row>
     <row r="23" spans="1:13" ht="12.75">
       <c r="A23" s="1"/>
-      <c r="B23" s="27" t="s">
-        <v>35</v>
+      <c r="B23" s="26" t="s">
+        <v>32</v>
       </c>
       <c r="C23" s="8">
         <v>21</v>
@@ -2262,8 +2819,8 @@
     </row>
     <row r="25" spans="1:13" ht="12.75">
       <c r="A25" s="1"/>
-      <c r="B25" s="27" t="s">
-        <v>36</v>
+      <c r="B25" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="C25" s="8">
         <v>23</v>
@@ -2299,7 +2856,7 @@
     <row r="27" spans="1:13" ht="12.75">
       <c r="A27" s="1"/>
       <c r="B27" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C27" s="8">
         <v>25</v>
@@ -2318,7 +2875,7 @@
     <row r="28" spans="1:13" ht="12.75">
       <c r="A28" s="1"/>
       <c r="B28" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C28" s="8">
         <v>26</v>
@@ -2336,8 +2893,8 @@
     </row>
     <row r="29" spans="1:13" ht="12.75">
       <c r="A29" s="1"/>
-      <c r="B29" s="28" t="s">
-        <v>39</v>
+      <c r="B29" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="C29" s="8">
         <v>27</v>
@@ -2388,7 +2945,7 @@
     <row r="32" spans="1:13" ht="12.75">
       <c r="A32" s="1"/>
       <c r="B32" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C32" s="8">
         <v>29</v>
@@ -2407,7 +2964,7 @@
     <row r="33" spans="1:13" ht="12.75">
       <c r="A33" s="1"/>
       <c r="B33" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C33" s="8">
         <v>30</v>
@@ -2425,8 +2982,8 @@
     </row>
     <row r="34" spans="1:13" ht="12.75">
       <c r="A34" s="1"/>
-      <c r="B34" s="35" t="s">
-        <v>42</v>
+      <c r="B34" s="36" t="s">
+        <v>39</v>
       </c>
       <c r="C34" s="8">
         <v>31</v>
@@ -2444,7 +3001,7 @@
     </row>
     <row r="35" spans="1:13" ht="12.75">
       <c r="A35" s="1"/>
-      <c r="B35" s="36"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="8">
         <v>32</v>
       </c>
@@ -2461,7 +3018,7 @@
     </row>
     <row r="36" spans="1:13" ht="12.75">
       <c r="A36" s="1"/>
-      <c r="B36" s="36"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="8">
         <v>33</v>
       </c>
@@ -2478,7 +3035,7 @@
     </row>
     <row r="37" spans="1:13" ht="12.75">
       <c r="A37" s="1"/>
-      <c r="B37" s="36"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="8">
         <v>34</v>
       </c>
@@ -2495,7 +3052,7 @@
     </row>
     <row r="38" spans="1:13" ht="12.75">
       <c r="A38" s="1"/>
-      <c r="B38" s="37"/>
+      <c r="B38" s="38"/>
       <c r="C38" s="8">
         <v>35</v>
       </c>
@@ -2513,7 +3070,7 @@
     <row r="39" spans="1:13" ht="12.75">
       <c r="A39" s="1"/>
       <c r="B39" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C39" s="8">
         <v>36</v>
@@ -2531,8 +3088,8 @@
     </row>
     <row r="40" spans="1:13" ht="12.75">
       <c r="A40" s="1"/>
-      <c r="B40" s="35" t="s">
-        <v>44</v>
+      <c r="B40" s="36" t="s">
+        <v>41</v>
       </c>
       <c r="C40" s="8">
         <v>37</v>
@@ -2550,7 +3107,7 @@
     </row>
     <row r="41" spans="1:13" ht="12.75">
       <c r="A41" s="1"/>
-      <c r="B41" s="37"/>
+      <c r="B41" s="38"/>
       <c r="C41" s="8">
         <v>38</v>
       </c>
@@ -2567,8 +3124,8 @@
     </row>
     <row r="42" spans="1:13" ht="12.75">
       <c r="A42" s="1"/>
-      <c r="B42" s="35" t="s">
-        <v>45</v>
+      <c r="B42" s="36" t="s">
+        <v>42</v>
       </c>
       <c r="C42" s="8">
         <v>39</v>
@@ -2586,7 +3143,7 @@
     </row>
     <row r="43" spans="1:13" ht="12.75">
       <c r="A43" s="1"/>
-      <c r="B43" s="37"/>
+      <c r="B43" s="38"/>
       <c r="C43" s="8">
         <v>40</v>
       </c>
@@ -2604,7 +3161,7 @@
     <row r="44" spans="1:13" ht="12.75">
       <c r="A44" s="1"/>
       <c r="B44" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C44" s="8">
         <v>41</v>
@@ -2622,8 +3179,8 @@
     </row>
     <row r="45" spans="1:13" ht="12.75">
       <c r="A45" s="1"/>
-      <c r="B45" s="35" t="s">
-        <v>47</v>
+      <c r="B45" s="36" t="s">
+        <v>44</v>
       </c>
       <c r="C45" s="8">
         <v>42</v>
@@ -2641,7 +3198,7 @@
     </row>
     <row r="46" spans="1:13" ht="12.75">
       <c r="A46" s="1"/>
-      <c r="B46" s="36"/>
+      <c r="B46" s="37"/>
       <c r="C46" s="8">
         <v>43</v>
       </c>
@@ -2658,7 +3215,7 @@
     </row>
     <row r="47" spans="1:13" ht="12.75">
       <c r="A47" s="1"/>
-      <c r="B47" s="37"/>
+      <c r="B47" s="38"/>
       <c r="C47" s="8">
         <v>44</v>
       </c>
@@ -2676,7 +3233,7 @@
     <row r="48" spans="1:13" ht="12.75">
       <c r="A48" s="1"/>
       <c r="B48" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C48" s="8">
         <v>45</v>
@@ -2695,7 +3252,7 @@
     <row r="49" spans="1:13" ht="12.75">
       <c r="A49" s="1"/>
       <c r="B49" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C49" s="8">
         <v>46</v>
@@ -2713,8 +3270,8 @@
     </row>
     <row r="50" spans="1:13" ht="12.75">
       <c r="A50" s="1"/>
-      <c r="B50" s="35" t="s">
-        <v>50</v>
+      <c r="B50" s="36" t="s">
+        <v>47</v>
       </c>
       <c r="C50" s="8">
         <v>47</v>
@@ -2732,7 +3289,7 @@
     </row>
     <row r="51" spans="1:13" ht="12.75">
       <c r="A51" s="1"/>
-      <c r="B51" s="36"/>
+      <c r="B51" s="37"/>
       <c r="C51" s="8">
         <v>48</v>
       </c>
@@ -2749,7 +3306,7 @@
     </row>
     <row r="52" spans="1:13" ht="12.75">
       <c r="A52" s="1"/>
-      <c r="B52" s="36"/>
+      <c r="B52" s="37"/>
       <c r="C52" s="8">
         <v>49</v>
       </c>
@@ -2766,7 +3323,7 @@
     </row>
     <row r="53" spans="1:13" ht="12.75">
       <c r="A53" s="1"/>
-      <c r="B53" s="36"/>
+      <c r="B53" s="37"/>
       <c r="C53" s="8">
         <v>50</v>
       </c>
@@ -2783,7 +3340,7 @@
     </row>
     <row r="54" spans="1:13" ht="12.75">
       <c r="A54" s="1"/>
-      <c r="B54" s="37"/>
+      <c r="B54" s="38"/>
       <c r="C54" s="8">
         <v>51</v>
       </c>
@@ -2801,7 +3358,7 @@
     <row r="55" spans="1:13" ht="12.75">
       <c r="A55" s="1"/>
       <c r="B55" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C55" s="8">
         <v>52</v>
@@ -2819,8 +3376,8 @@
     </row>
     <row r="56" spans="1:13" ht="12.75">
       <c r="A56" s="1"/>
-      <c r="B56" s="35" t="s">
-        <v>52</v>
+      <c r="B56" s="36" t="s">
+        <v>49</v>
       </c>
       <c r="C56" s="8">
         <v>53</v>
@@ -2838,7 +3395,7 @@
     </row>
     <row r="57" spans="1:13" ht="12.75">
       <c r="A57" s="1"/>
-      <c r="B57" s="37"/>
+      <c r="B57" s="38"/>
       <c r="C57" s="8">
         <v>54</v>
       </c>
@@ -2855,8 +3412,8 @@
     </row>
     <row r="58" spans="1:13" ht="12.75">
       <c r="A58" s="1"/>
-      <c r="B58" s="35" t="s">
-        <v>53</v>
+      <c r="B58" s="36" t="s">
+        <v>50</v>
       </c>
       <c r="C58" s="8">
         <v>55</v>
@@ -2874,7 +3431,7 @@
     </row>
     <row r="59" spans="1:13" ht="12.75">
       <c r="A59" s="1"/>
-      <c r="B59" s="37"/>
+      <c r="B59" s="38"/>
       <c r="C59" s="8">
         <v>56</v>
       </c>
@@ -2891,8 +3448,8 @@
     </row>
     <row r="60" spans="1:13" ht="12.75">
       <c r="A60" s="1"/>
-      <c r="B60" s="35" t="s">
-        <v>54</v>
+      <c r="B60" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="C60" s="8">
         <v>57</v>
@@ -2910,7 +3467,7 @@
     </row>
     <row r="61" spans="1:13" ht="12.75">
       <c r="A61" s="1"/>
-      <c r="B61" s="36"/>
+      <c r="B61" s="37"/>
       <c r="C61" s="8">
         <v>58</v>
       </c>
@@ -2927,7 +3484,7 @@
     </row>
     <row r="62" spans="1:13" ht="12.75">
       <c r="A62" s="1"/>
-      <c r="B62" s="37"/>
+      <c r="B62" s="38"/>
       <c r="C62" s="8">
         <v>59</v>
       </c>
@@ -2945,7 +3502,7 @@
     <row r="63" spans="1:13" ht="12.75">
       <c r="A63" s="1"/>
       <c r="B63" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C63" s="8">
         <v>60</v>
@@ -2964,7 +3521,7 @@
     <row r="64" spans="1:13" ht="12.75">
       <c r="A64" s="1"/>
       <c r="B64" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C64" s="8">
         <v>61</v>
@@ -2983,7 +3540,7 @@
     <row r="65" spans="1:13" ht="12.75">
       <c r="A65" s="1"/>
       <c r="B65" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C65" s="8">
         <v>63</v>
@@ -3002,7 +3559,7 @@
     <row r="66" spans="1:13" ht="12.75">
       <c r="A66" s="1"/>
       <c r="B66" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C66" s="8">
         <v>64</v>
@@ -3021,7 +3578,7 @@
     <row r="67" spans="1:13" ht="12.75">
       <c r="A67" s="1"/>
       <c r="B67" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C67" s="8">
         <v>65</v>
@@ -3040,7 +3597,7 @@
     <row r="68" spans="1:13" ht="12.75">
       <c r="A68" s="1"/>
       <c r="B68" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C68" s="8">
         <v>66</v>
@@ -3059,7 +3616,7 @@
     <row r="69" spans="1:13" ht="12.75">
       <c r="A69" s="1"/>
       <c r="B69" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C69" s="8">
         <v>67</v>
@@ -3078,7 +3635,7 @@
     <row r="70" spans="1:13" ht="12.75">
       <c r="A70" s="1"/>
       <c r="B70" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C70" s="8">
         <v>68</v>
@@ -3097,7 +3654,7 @@
     <row r="71" spans="1:13" ht="12.75">
       <c r="A71" s="1"/>
       <c r="B71" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C71" s="8">
         <v>69</v>
@@ -3116,7 +3673,7 @@
     <row r="72" spans="1:13" ht="12.75">
       <c r="A72" s="1"/>
       <c r="B72" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C72" s="8">
         <v>70</v>
@@ -3135,7 +3692,7 @@
     <row r="73" spans="1:13" ht="12.75">
       <c r="A73" s="1"/>
       <c r="B73" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C73" s="8">
         <v>71</v>
@@ -3154,7 +3711,7 @@
     <row r="74" spans="1:13" ht="12.75">
       <c r="A74" s="1"/>
       <c r="B74" s="12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C74" s="8">
         <v>72</v>
@@ -3173,7 +3730,7 @@
     <row r="75" spans="1:13" ht="12.75">
       <c r="A75" s="1"/>
       <c r="B75" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C75" s="8">
         <v>73</v>
@@ -3192,7 +3749,7 @@
     <row r="76" spans="1:13" ht="12.75">
       <c r="A76" s="1"/>
       <c r="B76" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C76" s="8">
         <v>74</v>
@@ -3226,7 +3783,7 @@
     <row r="78" spans="1:13" ht="12.75">
       <c r="A78" s="1"/>
       <c r="B78" s="19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C78" s="8">
         <v>75</v>
@@ -3245,7 +3802,7 @@
     <row r="79" spans="1:13" ht="12.75">
       <c r="A79" s="1"/>
       <c r="B79" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C79" s="8">
         <v>76</v>
@@ -3264,7 +3821,7 @@
     <row r="80" spans="1:13" ht="12.75">
       <c r="A80" s="1"/>
       <c r="B80" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C80" s="8">
         <v>77</v>
@@ -3283,7 +3840,7 @@
     <row r="81" spans="1:13" ht="12.75">
       <c r="A81" s="1"/>
       <c r="B81" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C81" s="8">
         <v>78</v>
@@ -3302,7 +3859,7 @@
     <row r="82" spans="1:13" ht="12.75">
       <c r="A82" s="1"/>
       <c r="B82" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C82" s="8">
         <v>79</v>
@@ -3321,7 +3878,7 @@
     <row r="83" spans="1:13" ht="12.75">
       <c r="A83" s="1"/>
       <c r="B83" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C83" s="8">
         <v>80</v>
@@ -3340,7 +3897,7 @@
     <row r="84" spans="1:13" ht="12.75">
       <c r="A84" s="1"/>
       <c r="B84" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C84" s="8">
         <v>81</v>
@@ -3359,7 +3916,7 @@
     <row r="85" spans="1:13" ht="12.75">
       <c r="A85" s="1"/>
       <c r="B85" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C85" s="8">
         <v>82</v>
@@ -3378,7 +3935,7 @@
     <row r="86" spans="1:13" ht="12.75">
       <c r="A86" s="1"/>
       <c r="B86" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C86" s="8">
         <v>83</v>
@@ -3397,7 +3954,7 @@
     <row r="87" spans="1:13" ht="12.75">
       <c r="A87" s="1"/>
       <c r="B87" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C87" s="8">
         <v>84</v>
@@ -3416,7 +3973,7 @@
     <row r="88" spans="1:13" ht="12.75">
       <c r="A88" s="1"/>
       <c r="B88" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C88" s="8">
         <v>85</v>
@@ -3435,7 +3992,7 @@
     <row r="89" spans="1:13" ht="12.75">
       <c r="A89" s="1"/>
       <c r="B89" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C89" s="8">
         <v>86</v>
@@ -3454,7 +4011,7 @@
     <row r="90" spans="1:13" ht="12.75">
       <c r="A90" s="1"/>
       <c r="B90" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C90" s="8">
         <v>87</v>
@@ -3473,7 +4030,7 @@
     <row r="91" spans="1:13" ht="12.75">
       <c r="A91" s="1"/>
       <c r="B91" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C91" s="8">
         <v>88</v>
@@ -3492,7 +4049,7 @@
     <row r="92" spans="1:13" ht="12.75">
       <c r="A92" s="1"/>
       <c r="B92" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C92" s="8">
         <v>89</v>
@@ -3511,7 +4068,7 @@
     <row r="93" spans="1:13" ht="12.75">
       <c r="A93" s="1"/>
       <c r="B93" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C93" s="8">
         <v>90</v>
@@ -3530,7 +4087,7 @@
     <row r="94" spans="1:13" ht="12.75">
       <c r="A94" s="1"/>
       <c r="B94" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C94" s="8">
         <v>91</v>
@@ -3549,7 +4106,7 @@
     <row r="95" spans="1:13" ht="12.75">
       <c r="A95" s="1"/>
       <c r="B95" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C95" s="8">
         <v>92</v>
@@ -3568,7 +4125,7 @@
     <row r="96" spans="1:13" ht="12.75">
       <c r="A96" s="1"/>
       <c r="B96" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C96" s="8">
         <v>93</v>
@@ -3587,7 +4144,7 @@
     <row r="97" spans="1:13" ht="12.75">
       <c r="A97" s="1"/>
       <c r="B97" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C97" s="8">
         <v>94</v>
@@ -3606,7 +4163,7 @@
     <row r="98" spans="1:13" ht="12.75">
       <c r="A98" s="1"/>
       <c r="B98" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C98" s="8">
         <v>95</v>
@@ -3625,7 +4182,7 @@
     <row r="99" spans="1:13" ht="12.75">
       <c r="A99" s="1"/>
       <c r="B99" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C99" s="8">
         <v>96</v>
@@ -3644,7 +4201,7 @@
     <row r="100" spans="1:13" ht="12.75">
       <c r="A100" s="1"/>
       <c r="B100" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C100" s="8">
         <v>97</v>
@@ -3663,7 +4220,7 @@
     <row r="101" spans="1:13" ht="12.75">
       <c r="A101" s="1"/>
       <c r="B101" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C101" s="8">
         <v>98</v>
@@ -3682,7 +4239,7 @@
     <row r="102" spans="1:13" ht="12.75">
       <c r="A102" s="1"/>
       <c r="B102" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C102" s="8">
         <v>99</v>
@@ -3701,7 +4258,7 @@
     <row r="103" spans="1:13" ht="12.75">
       <c r="A103" s="1"/>
       <c r="B103" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C103" s="8">
         <v>100</v>
@@ -3720,7 +4277,7 @@
     <row r="104" spans="1:13" ht="12.75">
       <c r="A104" s="1"/>
       <c r="B104" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C104" s="8">
         <v>101</v>
@@ -3739,7 +4296,7 @@
     <row r="105" spans="1:13" ht="12.75">
       <c r="A105" s="1"/>
       <c r="B105" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C105" s="8">
         <v>102</v>
@@ -3758,7 +4315,7 @@
     <row r="106" spans="1:13" ht="12.75">
       <c r="A106" s="1"/>
       <c r="B106" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C106" s="8">
         <v>103</v>
@@ -3777,7 +4334,7 @@
     <row r="107" spans="1:13" ht="12.75">
       <c r="A107" s="1"/>
       <c r="B107" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C107" s="8">
         <v>104</v>
@@ -3796,7 +4353,7 @@
     <row r="108" spans="1:13" ht="12.75">
       <c r="A108" s="1"/>
       <c r="B108" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C108" s="8">
         <v>105</v>
@@ -3815,7 +4372,7 @@
     <row r="109" spans="1:13" ht="12.75">
       <c r="A109" s="1"/>
       <c r="B109" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C109" s="8">
         <v>106</v>
@@ -3834,7 +4391,7 @@
     <row r="110" spans="1:13" ht="12.75">
       <c r="A110" s="1"/>
       <c r="B110" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C110" s="8">
         <v>107</v>
@@ -3853,7 +4410,7 @@
     <row r="111" spans="1:13" ht="12.75">
       <c r="A111" s="1"/>
       <c r="B111" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C111" s="8">
         <v>108</v>
@@ -3872,7 +4429,7 @@
     <row r="112" spans="1:13" ht="12.75">
       <c r="A112" s="1"/>
       <c r="B112" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C112" s="8">
         <v>109</v>
@@ -3891,7 +4448,7 @@
     <row r="113" spans="1:13" ht="12.75">
       <c r="A113" s="1"/>
       <c r="B113" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C113" s="8">
         <v>110</v>
@@ -3910,7 +4467,7 @@
     <row r="114" spans="1:13" ht="12.75">
       <c r="A114" s="1"/>
       <c r="B114" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C114" s="8">
         <v>111</v>
@@ -3929,7 +4486,7 @@
     <row r="115" spans="1:13" ht="12.75">
       <c r="A115" s="1"/>
       <c r="B115" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C115" s="8">
         <v>112</v>
@@ -3948,7 +4505,7 @@
     <row r="116" spans="1:13" ht="12.75">
       <c r="A116" s="1"/>
       <c r="B116" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C116" s="8">
         <v>113</v>
@@ -3967,7 +4524,7 @@
     <row r="117" spans="1:13" ht="12.75">
       <c r="A117" s="1"/>
       <c r="B117" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C117" s="8">
         <v>114</v>
@@ -3986,7 +4543,7 @@
     <row r="118" spans="1:13" ht="12.75">
       <c r="A118" s="1"/>
       <c r="B118" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C118" s="8">
         <v>115</v>
@@ -4005,7 +4562,7 @@
     <row r="119" spans="1:13" ht="12.75">
       <c r="A119" s="1"/>
       <c r="B119" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C119" s="8">
         <v>116</v>
@@ -4024,7 +4581,7 @@
     <row r="120" spans="1:13" ht="12.75">
       <c r="A120" s="1"/>
       <c r="B120" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C120" s="8">
         <v>117</v>
@@ -4043,7 +4600,7 @@
     <row r="121" spans="1:13" ht="12.75">
       <c r="A121" s="1"/>
       <c r="B121" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C121" s="8">
         <v>118</v>
@@ -4062,7 +4619,7 @@
     <row r="122" spans="1:13" ht="12.75">
       <c r="A122" s="1"/>
       <c r="B122" s="12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C122" s="8">
         <v>119</v>
@@ -4081,7 +4638,7 @@
     <row r="123" spans="1:13" ht="12.75">
       <c r="A123" s="1"/>
       <c r="B123" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C123" s="8">
         <v>120</v>
@@ -4115,7 +4672,7 @@
     <row r="125" spans="1:13" ht="12.75">
       <c r="A125" s="1"/>
       <c r="B125" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C125" s="8">
         <v>121</v>
@@ -4134,7 +4691,7 @@
     <row r="126" spans="1:13" ht="12.75">
       <c r="A126" s="1"/>
       <c r="B126" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C126" s="8">
         <v>122</v>
@@ -4153,7 +4710,7 @@
     <row r="127" spans="1:13" ht="12.75">
       <c r="A127" s="1"/>
       <c r="B127" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C127" s="8">
         <v>123</v>
@@ -4172,7 +4729,7 @@
     <row r="128" spans="1:13" ht="12.75">
       <c r="A128" s="1"/>
       <c r="B128" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C128" s="8">
         <v>124</v>
@@ -4191,7 +4748,7 @@
     <row r="129" spans="1:13" ht="12.75">
       <c r="A129" s="1"/>
       <c r="B129" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C129" s="8">
         <v>125</v>
@@ -4210,7 +4767,7 @@
     <row r="130" spans="1:13" ht="12.75">
       <c r="A130" s="1"/>
       <c r="B130" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C130" s="8">
         <v>126</v>
@@ -4229,7 +4786,7 @@
     <row r="131" spans="1:13" ht="12.75">
       <c r="A131" s="1"/>
       <c r="B131" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C131" s="8">
         <v>127</v>
@@ -4248,7 +4805,7 @@
     <row r="132" spans="1:13" ht="12.75">
       <c r="A132" s="1"/>
       <c r="B132" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C132" s="8">
         <v>128</v>
@@ -4267,7 +4824,7 @@
     <row r="133" spans="1:13" ht="12.75">
       <c r="A133" s="1"/>
       <c r="B133" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C133" s="8">
         <v>129</v>
@@ -4286,7 +4843,7 @@
     <row r="134" spans="1:13" ht="12.75">
       <c r="A134" s="1"/>
       <c r="B134" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C134" s="8">
         <v>130</v>
@@ -4303,7 +4860,7 @@
       <c r="M134" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B50:B54"/>
     <mergeCell ref="B56:B57"/>
@@ -4313,21 +4870,26 @@
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B4:B7"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F30" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F30">
       <formula1>"브론즈5, 브론즈4, 브론즈3, 브론즈2, 브론즈1, 실버5, 실버4, 실버3, 실버2, 실버1, 골드5, 골드4, 골드3, 골드2, 골드1, 플래티넘5, 플래티넘4, 플래티넘3, 플래티넘2, 플래티넘1, 다이아5, 다이아4, 다이아3, 다이아2, 다이아1, 루비"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{87C74199-F485-458A-B2A6-A8D5E51761C4}"/>
-    <hyperlink ref="G5" r:id="rId3" xr:uid="{6DEDBC63-47F0-4182-B687-AAF3E5463F94}"/>
-    <hyperlink ref="G6" r:id="rId4" xr:uid="{4D4187D9-4C4F-4F5E-8ACA-AAE2096D90ED}"/>
-    <hyperlink ref="G7" r:id="rId5" xr:uid="{4351EF49-235B-4696-9204-E090215258C8}"/>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId3"/>
+    <hyperlink ref="G6" r:id="rId4"/>
+    <hyperlink ref="G7" r:id="rId5"/>
+    <hyperlink ref="G8" r:id="rId6"/>
+    <hyperlink ref="G9" r:id="rId7"/>
+    <hyperlink ref="G10" r:id="rId8"/>
+    <hyperlink ref="G11" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/codingTest/Algorithm.xlsx
+++ b/codingTest/Algorithm.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="153">
   <si>
     <t>분류</t>
   </si>
@@ -1232,6 +1232,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1251,6 +1252,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1270,6 +1272,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1288,6 +1291,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1487,6 +1491,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1550,6 +1555,97 @@
         <charset val="129"/>
       </rPr>
       <t>분</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/2869</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>브론즈1</t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">869. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>달팽이는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>올라가고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>싶다</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">수학
+</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1817,7 +1913,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1887,6 +1983,18 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1901,16 +2009,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2136,7 +2235,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2149,16 +2248,16 @@
   <sheetData>
     <row r="1" spans="1:13" ht="31.5">
       <c r="A1" s="1"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="39"/>
       <c r="J1" s="1"/>
       <c r="K1" s="2" t="s">
         <v>0</v>
@@ -2205,7 +2304,7 @@
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="33" t="s">
         <v>106</v>
       </c>
       <c r="C3" s="8">
@@ -2243,7 +2342,7 @@
     </row>
     <row r="4" spans="1:13" ht="76.5">
       <c r="A4" s="1"/>
-      <c r="B4" s="39">
+      <c r="B4" s="43">
         <v>45387</v>
       </c>
       <c r="C4" s="8">
@@ -2279,7 +2378,7 @@
     </row>
     <row r="5" spans="1:13" ht="51">
       <c r="A5" s="1"/>
-      <c r="B5" s="39"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="8">
         <v>3</v>
       </c>
@@ -2313,7 +2412,7 @@
     </row>
     <row r="6" spans="1:13" ht="51">
       <c r="A6" s="1"/>
-      <c r="B6" s="39"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="8">
         <v>4</v>
       </c>
@@ -2347,7 +2446,7 @@
     </row>
     <row r="7" spans="1:13" ht="51">
       <c r="A7" s="1"/>
-      <c r="B7" s="40"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="8">
         <v>5</v>
       </c>
@@ -2381,7 +2480,7 @@
     </row>
     <row r="8" spans="1:13" ht="12.75">
       <c r="A8" s="1"/>
-      <c r="B8" s="42">
+      <c r="B8" s="34">
         <v>45391</v>
       </c>
       <c r="C8" s="8">
@@ -2390,7 +2489,7 @@
       <c r="D8" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="35" t="s">
         <v>129</v>
       </c>
       <c r="F8" s="28" t="s">
@@ -2424,7 +2523,7 @@
       <c r="D9" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="36" t="s">
         <v>134</v>
       </c>
       <c r="F9" s="28" t="s">
@@ -2458,7 +2557,7 @@
       <c r="D10" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="35" t="s">
         <v>139</v>
       </c>
       <c r="F10" s="28" t="s">
@@ -2492,7 +2591,7 @@
       <c r="D11" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="36" t="s">
         <v>144</v>
       </c>
       <c r="F11" s="28" t="s">
@@ -2517,18 +2616,28 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="12.75">
+    <row r="12" spans="1:13" ht="24.75">
       <c r="A12" s="1"/>
       <c r="B12" s="25"/>
       <c r="C12" s="8">
         <v>10</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="13"/>
+      <c r="D12" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>148</v>
+      </c>
       <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
+      <c r="I12" s="30" t="s">
+        <v>152</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="8" t="s">
         <v>21</v>
@@ -2982,7 +3091,7 @@
     </row>
     <row r="34" spans="1:13" ht="12.75">
       <c r="A34" s="1"/>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="40" t="s">
         <v>39</v>
       </c>
       <c r="C34" s="8">
@@ -3001,7 +3110,7 @@
     </row>
     <row r="35" spans="1:13" ht="12.75">
       <c r="A35" s="1"/>
-      <c r="B35" s="37"/>
+      <c r="B35" s="41"/>
       <c r="C35" s="8">
         <v>32</v>
       </c>
@@ -3018,7 +3127,7 @@
     </row>
     <row r="36" spans="1:13" ht="12.75">
       <c r="A36" s="1"/>
-      <c r="B36" s="37"/>
+      <c r="B36" s="41"/>
       <c r="C36" s="8">
         <v>33</v>
       </c>
@@ -3035,7 +3144,7 @@
     </row>
     <row r="37" spans="1:13" ht="12.75">
       <c r="A37" s="1"/>
-      <c r="B37" s="37"/>
+      <c r="B37" s="41"/>
       <c r="C37" s="8">
         <v>34</v>
       </c>
@@ -3052,7 +3161,7 @@
     </row>
     <row r="38" spans="1:13" ht="12.75">
       <c r="A38" s="1"/>
-      <c r="B38" s="38"/>
+      <c r="B38" s="42"/>
       <c r="C38" s="8">
         <v>35</v>
       </c>
@@ -3088,7 +3197,7 @@
     </row>
     <row r="40" spans="1:13" ht="12.75">
       <c r="A40" s="1"/>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="40" t="s">
         <v>41</v>
       </c>
       <c r="C40" s="8">
@@ -3107,7 +3216,7 @@
     </row>
     <row r="41" spans="1:13" ht="12.75">
       <c r="A41" s="1"/>
-      <c r="B41" s="38"/>
+      <c r="B41" s="42"/>
       <c r="C41" s="8">
         <v>38</v>
       </c>
@@ -3124,7 +3233,7 @@
     </row>
     <row r="42" spans="1:13" ht="12.75">
       <c r="A42" s="1"/>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="40" t="s">
         <v>42</v>
       </c>
       <c r="C42" s="8">
@@ -3143,7 +3252,7 @@
     </row>
     <row r="43" spans="1:13" ht="12.75">
       <c r="A43" s="1"/>
-      <c r="B43" s="38"/>
+      <c r="B43" s="42"/>
       <c r="C43" s="8">
         <v>40</v>
       </c>
@@ -3179,7 +3288,7 @@
     </row>
     <row r="45" spans="1:13" ht="12.75">
       <c r="A45" s="1"/>
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="40" t="s">
         <v>44</v>
       </c>
       <c r="C45" s="8">
@@ -3198,7 +3307,7 @@
     </row>
     <row r="46" spans="1:13" ht="12.75">
       <c r="A46" s="1"/>
-      <c r="B46" s="37"/>
+      <c r="B46" s="41"/>
       <c r="C46" s="8">
         <v>43</v>
       </c>
@@ -3215,7 +3324,7 @@
     </row>
     <row r="47" spans="1:13" ht="12.75">
       <c r="A47" s="1"/>
-      <c r="B47" s="38"/>
+      <c r="B47" s="42"/>
       <c r="C47" s="8">
         <v>44</v>
       </c>
@@ -3270,7 +3379,7 @@
     </row>
     <row r="50" spans="1:13" ht="12.75">
       <c r="A50" s="1"/>
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="40" t="s">
         <v>47</v>
       </c>
       <c r="C50" s="8">
@@ -3289,7 +3398,7 @@
     </row>
     <row r="51" spans="1:13" ht="12.75">
       <c r="A51" s="1"/>
-      <c r="B51" s="37"/>
+      <c r="B51" s="41"/>
       <c r="C51" s="8">
         <v>48</v>
       </c>
@@ -3306,7 +3415,7 @@
     </row>
     <row r="52" spans="1:13" ht="12.75">
       <c r="A52" s="1"/>
-      <c r="B52" s="37"/>
+      <c r="B52" s="41"/>
       <c r="C52" s="8">
         <v>49</v>
       </c>
@@ -3323,7 +3432,7 @@
     </row>
     <row r="53" spans="1:13" ht="12.75">
       <c r="A53" s="1"/>
-      <c r="B53" s="37"/>
+      <c r="B53" s="41"/>
       <c r="C53" s="8">
         <v>50</v>
       </c>
@@ -3340,7 +3449,7 @@
     </row>
     <row r="54" spans="1:13" ht="12.75">
       <c r="A54" s="1"/>
-      <c r="B54" s="38"/>
+      <c r="B54" s="42"/>
       <c r="C54" s="8">
         <v>51</v>
       </c>
@@ -3376,7 +3485,7 @@
     </row>
     <row r="56" spans="1:13" ht="12.75">
       <c r="A56" s="1"/>
-      <c r="B56" s="36" t="s">
+      <c r="B56" s="40" t="s">
         <v>49</v>
       </c>
       <c r="C56" s="8">
@@ -3395,7 +3504,7 @@
     </row>
     <row r="57" spans="1:13" ht="12.75">
       <c r="A57" s="1"/>
-      <c r="B57" s="38"/>
+      <c r="B57" s="42"/>
       <c r="C57" s="8">
         <v>54</v>
       </c>
@@ -3412,7 +3521,7 @@
     </row>
     <row r="58" spans="1:13" ht="12.75">
       <c r="A58" s="1"/>
-      <c r="B58" s="36" t="s">
+      <c r="B58" s="40" t="s">
         <v>50</v>
       </c>
       <c r="C58" s="8">
@@ -3431,7 +3540,7 @@
     </row>
     <row r="59" spans="1:13" ht="12.75">
       <c r="A59" s="1"/>
-      <c r="B59" s="38"/>
+      <c r="B59" s="42"/>
       <c r="C59" s="8">
         <v>56</v>
       </c>
@@ -3448,7 +3557,7 @@
     </row>
     <row r="60" spans="1:13" ht="12.75">
       <c r="A60" s="1"/>
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="40" t="s">
         <v>51</v>
       </c>
       <c r="C60" s="8">
@@ -3467,7 +3576,7 @@
     </row>
     <row r="61" spans="1:13" ht="12.75">
       <c r="A61" s="1"/>
-      <c r="B61" s="37"/>
+      <c r="B61" s="41"/>
       <c r="C61" s="8">
         <v>58</v>
       </c>
@@ -3484,7 +3593,7 @@
     </row>
     <row r="62" spans="1:13" ht="12.75">
       <c r="A62" s="1"/>
-      <c r="B62" s="38"/>
+      <c r="B62" s="42"/>
       <c r="C62" s="8">
         <v>59</v>
       </c>
@@ -4888,8 +4997,9 @@
     <hyperlink ref="G9" r:id="rId7"/>
     <hyperlink ref="G10" r:id="rId8"/>
     <hyperlink ref="G11" r:id="rId9"/>
+    <hyperlink ref="G12" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/codingTest/Algorithm.xlsx
+++ b/codingTest/Algorithm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taeyeon\Desktop\TIL\codingTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taeyeon\Desktop\python\TIL\codingTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A1B0A8-8BE7-4D52-A8F3-B30AB1ABC343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7ED051-7DB1-4E23-A5A7-D4FCD42EEE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4988" yWindow="2197" windowWidth="18000" windowHeight="10433" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="141">
   <si>
     <t>분류</t>
   </si>
@@ -81,19 +81,10 @@
     <t>이분탐색</t>
   </si>
   <si>
-    <t>2024.01.20</t>
-  </si>
-  <si>
     <t>정렬</t>
   </si>
   <si>
-    <t>2024.01.21</t>
-  </si>
-  <si>
     <t>DFS / BFS</t>
-  </si>
-  <si>
-    <t>2024.01.22</t>
   </si>
   <si>
     <t>그래프</t>
@@ -493,6 +484,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -531,6 +523,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -569,6 +562,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -644,6 +638,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -662,6 +657,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -681,6 +677,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -699,6 +696,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -718,6 +716,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -736,6 +735,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -754,6 +754,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -773,6 +774,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -791,6 +793,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -859,6 +862,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -877,6 +881,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -896,6 +901,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -914,6 +920,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -933,6 +940,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -951,6 +959,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1063,6 +1072,468 @@
   </si>
   <si>
     <t>https://www.acmicpc.net/problem/1697</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2583. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>영역 구하기</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그래프</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이론</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그래프</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>탐색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>너비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우선</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>탐색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>깊이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우선</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>탐색</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/2583</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14503. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>로봇 청소기</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시뮬레이션</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/14503</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>시간</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1620. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나는야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포켓몬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마스터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이다솜</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구조
+해시를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>집합과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맵</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>실버</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.acmicpc.net/problem/1620</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024.01.22</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1074,7 +1545,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;월 &quot;d&quot;일 &quot;dddd"/>
     <numFmt numFmtId="177" formatCode="m&quot;월 &quot;d&quot;일 &quot;aaaa"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1173,6 +1644,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1206,7 +1684,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1300,12 +1778,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1372,14 +1874,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1390,6 +1884,24 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1611,9 +2123,9 @@
   </sheetPr>
   <dimension ref="A1:M134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1626,16 +2138,16 @@
   <sheetData>
     <row r="1" spans="1:13" ht="31.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="39"/>
       <c r="J1" s="1"/>
       <c r="K1" s="2" t="s">
         <v>0</v>
@@ -1683,28 +2195,28 @@
     <row r="3" spans="1:13" ht="20.25" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="26" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
       </c>
       <c r="D3" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="31" t="s">
         <v>110</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="I3" s="31" t="s">
-        <v>113</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="8" t="s">
@@ -1720,27 +2232,27 @@
     </row>
     <row r="4" spans="1:13" ht="52.5">
       <c r="A4" s="1"/>
-      <c r="B4" s="39">
+      <c r="B4" s="33">
         <v>45387</v>
       </c>
       <c r="C4" s="8">
         <v>2</v>
       </c>
       <c r="D4" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="30" t="s">
         <v>114</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>117</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="31" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="8" t="s">
@@ -1756,27 +2268,27 @@
     </row>
     <row r="5" spans="1:13" ht="39.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="40">
+      <c r="B5" s="34">
         <v>45387</v>
       </c>
       <c r="C5" s="8">
         <v>3</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>120</v>
+        <v>116</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>117</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="31" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="8" t="s">
@@ -1792,25 +2304,27 @@
     </row>
     <row r="6" spans="1:13" ht="39.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="25"/>
+      <c r="B6" s="43">
+        <v>45391</v>
+      </c>
       <c r="C6" s="8">
         <v>4</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="38" t="s">
         <v>120</v>
       </c>
+      <c r="E6" s="32" t="s">
+        <v>117</v>
+      </c>
       <c r="F6" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="8" t="s">
@@ -1826,31 +2340,29 @@
     </row>
     <row r="7" spans="1:13" ht="39.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="12" t="s">
-        <v>16</v>
-      </c>
+      <c r="B7" s="43"/>
       <c r="C7" s="8">
         <v>5</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>120</v>
+        <v>125</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>117</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="31" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L7" s="8">
         <f t="shared" si="0"/>
@@ -1860,23 +2372,31 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="12.75">
+    <row r="8" spans="1:13" ht="52.5">
       <c r="A8" s="1"/>
-      <c r="B8" s="12" t="s">
-        <v>18</v>
-      </c>
+      <c r="B8" s="44"/>
       <c r="C8" s="8">
         <v>6</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="13"/>
+      <c r="D8" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>130</v>
+      </c>
       <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="I8" s="31" t="s">
+        <v>115</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L8" s="8">
         <f t="shared" si="0"/>
@@ -1886,23 +2406,33 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="12.75">
+    <row r="9" spans="1:13" ht="26.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="27" t="s">
-        <v>20</v>
+      <c r="B9" s="26" t="s">
+        <v>140</v>
       </c>
       <c r="C9" s="8">
         <v>7</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="13"/>
+      <c r="D9" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>134</v>
+      </c>
       <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
+      <c r="I9" s="31" t="s">
+        <v>135</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L9" s="8">
         <f t="shared" si="0"/>
@@ -1912,21 +2442,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="12.75">
+    <row r="10" spans="1:13" ht="47.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="24"/>
+      <c r="B10" s="45">
+        <v>45393</v>
+      </c>
       <c r="C10" s="8">
         <v>8</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="13"/>
+      <c r="D10" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>139</v>
+      </c>
       <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="I10" s="31" t="s">
+        <v>115</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L10" s="8">
         <f t="shared" si="0"/>
@@ -1950,7 +2492,7 @@
       <c r="I11" s="11"/>
       <c r="J11" s="1"/>
       <c r="K11" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L11" s="8">
         <f t="shared" si="0"/>
@@ -1974,7 +2516,7 @@
       <c r="I12" s="11"/>
       <c r="J12" s="1"/>
       <c r="K12" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L12" s="8">
         <f t="shared" si="0"/>
@@ -1987,7 +2529,7 @@
     <row r="13" spans="1:13" ht="12.75">
       <c r="A13" s="1"/>
       <c r="B13" s="27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C13" s="8">
         <v>11</v>
@@ -2000,7 +2542,7 @@
       <c r="I13" s="11"/>
       <c r="J13" s="1"/>
       <c r="K13" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L13" s="8">
         <f>COUNTIF(E:E,K13)</f>
@@ -2024,7 +2566,7 @@
       <c r="I14" s="11"/>
       <c r="J14" s="1"/>
       <c r="K14" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L14" s="8">
         <f t="shared" si="0"/>
@@ -2037,7 +2579,7 @@
     <row r="15" spans="1:13" ht="12.75">
       <c r="A15" s="1"/>
       <c r="B15" s="27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C15" s="8">
         <v>13</v>
@@ -2050,7 +2592,7 @@
       <c r="I15" s="11"/>
       <c r="J15" s="1"/>
       <c r="K15" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L15" s="8">
         <f t="shared" si="0"/>
@@ -2074,7 +2616,7 @@
       <c r="I16" s="11"/>
       <c r="J16" s="1"/>
       <c r="K16" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L16" s="8">
         <f t="shared" si="0"/>
@@ -2098,7 +2640,7 @@
       <c r="I17" s="11"/>
       <c r="J17" s="1"/>
       <c r="K17" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L17" s="8">
         <f t="shared" si="0"/>
@@ -2111,7 +2653,7 @@
     <row r="18" spans="1:13" ht="12.75">
       <c r="A18" s="1"/>
       <c r="B18" s="27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C18" s="8">
         <v>16</v>
@@ -2124,7 +2666,7 @@
       <c r="I18" s="11"/>
       <c r="J18" s="1"/>
       <c r="K18" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L18" s="8">
         <f t="shared" si="0"/>
@@ -2148,7 +2690,7 @@
       <c r="I19" s="11"/>
       <c r="J19" s="1"/>
       <c r="K19" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L19" s="8">
         <f t="shared" si="0"/>
@@ -2194,7 +2736,7 @@
       <c r="I21" s="11"/>
       <c r="J21" s="1"/>
       <c r="K21" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L21" s="8">
         <f t="shared" ref="L21:M21" si="1">SUM(L3:L20)</f>
@@ -2208,7 +2750,7 @@
     <row r="22" spans="1:13" ht="12.75">
       <c r="A22" s="1"/>
       <c r="B22" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C22" s="8">
         <v>20</v>
@@ -2227,7 +2769,7 @@
     <row r="23" spans="1:13" ht="12.75">
       <c r="A23" s="1"/>
       <c r="B23" s="27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C23" s="8">
         <v>21</v>
@@ -2263,7 +2805,7 @@
     <row r="25" spans="1:13" ht="12.75">
       <c r="A25" s="1"/>
       <c r="B25" s="27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C25" s="8">
         <v>23</v>
@@ -2299,7 +2841,7 @@
     <row r="27" spans="1:13" ht="12.75">
       <c r="A27" s="1"/>
       <c r="B27" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C27" s="8">
         <v>25</v>
@@ -2318,7 +2860,7 @@
     <row r="28" spans="1:13" ht="12.75">
       <c r="A28" s="1"/>
       <c r="B28" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C28" s="8">
         <v>26</v>
@@ -2337,7 +2879,7 @@
     <row r="29" spans="1:13" ht="12.75">
       <c r="A29" s="1"/>
       <c r="B29" s="28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C29" s="8">
         <v>27</v>
@@ -2388,7 +2930,7 @@
     <row r="32" spans="1:13" ht="12.75">
       <c r="A32" s="1"/>
       <c r="B32" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C32" s="8">
         <v>29</v>
@@ -2407,7 +2949,7 @@
     <row r="33" spans="1:13" ht="12.75">
       <c r="A33" s="1"/>
       <c r="B33" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C33" s="8">
         <v>30</v>
@@ -2425,8 +2967,8 @@
     </row>
     <row r="34" spans="1:13" ht="12.75">
       <c r="A34" s="1"/>
-      <c r="B34" s="35" t="s">
-        <v>42</v>
+      <c r="B34" s="40" t="s">
+        <v>39</v>
       </c>
       <c r="C34" s="8">
         <v>31</v>
@@ -2444,7 +2986,7 @@
     </row>
     <row r="35" spans="1:13" ht="12.75">
       <c r="A35" s="1"/>
-      <c r="B35" s="36"/>
+      <c r="B35" s="41"/>
       <c r="C35" s="8">
         <v>32</v>
       </c>
@@ -2461,7 +3003,7 @@
     </row>
     <row r="36" spans="1:13" ht="12.75">
       <c r="A36" s="1"/>
-      <c r="B36" s="36"/>
+      <c r="B36" s="41"/>
       <c r="C36" s="8">
         <v>33</v>
       </c>
@@ -2478,7 +3020,7 @@
     </row>
     <row r="37" spans="1:13" ht="12.75">
       <c r="A37" s="1"/>
-      <c r="B37" s="36"/>
+      <c r="B37" s="41"/>
       <c r="C37" s="8">
         <v>34</v>
       </c>
@@ -2495,7 +3037,7 @@
     </row>
     <row r="38" spans="1:13" ht="12.75">
       <c r="A38" s="1"/>
-      <c r="B38" s="37"/>
+      <c r="B38" s="42"/>
       <c r="C38" s="8">
         <v>35</v>
       </c>
@@ -2513,7 +3055,7 @@
     <row r="39" spans="1:13" ht="12.75">
       <c r="A39" s="1"/>
       <c r="B39" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C39" s="8">
         <v>36</v>
@@ -2531,8 +3073,8 @@
     </row>
     <row r="40" spans="1:13" ht="12.75">
       <c r="A40" s="1"/>
-      <c r="B40" s="35" t="s">
-        <v>44</v>
+      <c r="B40" s="40" t="s">
+        <v>41</v>
       </c>
       <c r="C40" s="8">
         <v>37</v>
@@ -2550,7 +3092,7 @@
     </row>
     <row r="41" spans="1:13" ht="12.75">
       <c r="A41" s="1"/>
-      <c r="B41" s="37"/>
+      <c r="B41" s="42"/>
       <c r="C41" s="8">
         <v>38</v>
       </c>
@@ -2567,8 +3109,8 @@
     </row>
     <row r="42" spans="1:13" ht="12.75">
       <c r="A42" s="1"/>
-      <c r="B42" s="35" t="s">
-        <v>45</v>
+      <c r="B42" s="40" t="s">
+        <v>42</v>
       </c>
       <c r="C42" s="8">
         <v>39</v>
@@ -2586,7 +3128,7 @@
     </row>
     <row r="43" spans="1:13" ht="12.75">
       <c r="A43" s="1"/>
-      <c r="B43" s="37"/>
+      <c r="B43" s="42"/>
       <c r="C43" s="8">
         <v>40</v>
       </c>
@@ -2604,7 +3146,7 @@
     <row r="44" spans="1:13" ht="12.75">
       <c r="A44" s="1"/>
       <c r="B44" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C44" s="8">
         <v>41</v>
@@ -2622,8 +3164,8 @@
     </row>
     <row r="45" spans="1:13" ht="12.75">
       <c r="A45" s="1"/>
-      <c r="B45" s="35" t="s">
-        <v>47</v>
+      <c r="B45" s="40" t="s">
+        <v>44</v>
       </c>
       <c r="C45" s="8">
         <v>42</v>
@@ -2641,7 +3183,7 @@
     </row>
     <row r="46" spans="1:13" ht="12.75">
       <c r="A46" s="1"/>
-      <c r="B46" s="36"/>
+      <c r="B46" s="41"/>
       <c r="C46" s="8">
         <v>43</v>
       </c>
@@ -2658,7 +3200,7 @@
     </row>
     <row r="47" spans="1:13" ht="12.75">
       <c r="A47" s="1"/>
-      <c r="B47" s="37"/>
+      <c r="B47" s="42"/>
       <c r="C47" s="8">
         <v>44</v>
       </c>
@@ -2676,7 +3218,7 @@
     <row r="48" spans="1:13" ht="12.75">
       <c r="A48" s="1"/>
       <c r="B48" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C48" s="8">
         <v>45</v>
@@ -2695,7 +3237,7 @@
     <row r="49" spans="1:13" ht="12.75">
       <c r="A49" s="1"/>
       <c r="B49" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C49" s="8">
         <v>46</v>
@@ -2713,8 +3255,8 @@
     </row>
     <row r="50" spans="1:13" ht="12.75">
       <c r="A50" s="1"/>
-      <c r="B50" s="35" t="s">
-        <v>50</v>
+      <c r="B50" s="40" t="s">
+        <v>47</v>
       </c>
       <c r="C50" s="8">
         <v>47</v>
@@ -2732,7 +3274,7 @@
     </row>
     <row r="51" spans="1:13" ht="12.75">
       <c r="A51" s="1"/>
-      <c r="B51" s="36"/>
+      <c r="B51" s="41"/>
       <c r="C51" s="8">
         <v>48</v>
       </c>
@@ -2749,7 +3291,7 @@
     </row>
     <row r="52" spans="1:13" ht="12.75">
       <c r="A52" s="1"/>
-      <c r="B52" s="36"/>
+      <c r="B52" s="41"/>
       <c r="C52" s="8">
         <v>49</v>
       </c>
@@ -2766,7 +3308,7 @@
     </row>
     <row r="53" spans="1:13" ht="12.75">
       <c r="A53" s="1"/>
-      <c r="B53" s="36"/>
+      <c r="B53" s="41"/>
       <c r="C53" s="8">
         <v>50</v>
       </c>
@@ -2783,7 +3325,7 @@
     </row>
     <row r="54" spans="1:13" ht="12.75">
       <c r="A54" s="1"/>
-      <c r="B54" s="37"/>
+      <c r="B54" s="42"/>
       <c r="C54" s="8">
         <v>51</v>
       </c>
@@ -2801,7 +3343,7 @@
     <row r="55" spans="1:13" ht="12.75">
       <c r="A55" s="1"/>
       <c r="B55" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C55" s="8">
         <v>52</v>
@@ -2819,8 +3361,8 @@
     </row>
     <row r="56" spans="1:13" ht="12.75">
       <c r="A56" s="1"/>
-      <c r="B56" s="35" t="s">
-        <v>52</v>
+      <c r="B56" s="40" t="s">
+        <v>49</v>
       </c>
       <c r="C56" s="8">
         <v>53</v>
@@ -2838,7 +3380,7 @@
     </row>
     <row r="57" spans="1:13" ht="12.75">
       <c r="A57" s="1"/>
-      <c r="B57" s="37"/>
+      <c r="B57" s="42"/>
       <c r="C57" s="8">
         <v>54</v>
       </c>
@@ -2855,8 +3397,8 @@
     </row>
     <row r="58" spans="1:13" ht="12.75">
       <c r="A58" s="1"/>
-      <c r="B58" s="35" t="s">
-        <v>53</v>
+      <c r="B58" s="40" t="s">
+        <v>50</v>
       </c>
       <c r="C58" s="8">
         <v>55</v>
@@ -2874,7 +3416,7 @@
     </row>
     <row r="59" spans="1:13" ht="12.75">
       <c r="A59" s="1"/>
-      <c r="B59" s="37"/>
+      <c r="B59" s="42"/>
       <c r="C59" s="8">
         <v>56</v>
       </c>
@@ -2891,8 +3433,8 @@
     </row>
     <row r="60" spans="1:13" ht="12.75">
       <c r="A60" s="1"/>
-      <c r="B60" s="35" t="s">
-        <v>54</v>
+      <c r="B60" s="40" t="s">
+        <v>51</v>
       </c>
       <c r="C60" s="8">
         <v>57</v>
@@ -2910,7 +3452,7 @@
     </row>
     <row r="61" spans="1:13" ht="12.75">
       <c r="A61" s="1"/>
-      <c r="B61" s="36"/>
+      <c r="B61" s="41"/>
       <c r="C61" s="8">
         <v>58</v>
       </c>
@@ -2927,7 +3469,7 @@
     </row>
     <row r="62" spans="1:13" ht="12.75">
       <c r="A62" s="1"/>
-      <c r="B62" s="37"/>
+      <c r="B62" s="42"/>
       <c r="C62" s="8">
         <v>59</v>
       </c>
@@ -2945,7 +3487,7 @@
     <row r="63" spans="1:13" ht="12.75">
       <c r="A63" s="1"/>
       <c r="B63" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C63" s="8">
         <v>60</v>
@@ -2964,7 +3506,7 @@
     <row r="64" spans="1:13" ht="12.75">
       <c r="A64" s="1"/>
       <c r="B64" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C64" s="8">
         <v>61</v>
@@ -2983,7 +3525,7 @@
     <row r="65" spans="1:13" ht="12.75">
       <c r="A65" s="1"/>
       <c r="B65" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C65" s="8">
         <v>63</v>
@@ -3002,7 +3544,7 @@
     <row r="66" spans="1:13" ht="12.75">
       <c r="A66" s="1"/>
       <c r="B66" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C66" s="8">
         <v>64</v>
@@ -3021,7 +3563,7 @@
     <row r="67" spans="1:13" ht="12.75">
       <c r="A67" s="1"/>
       <c r="B67" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C67" s="8">
         <v>65</v>
@@ -3040,7 +3582,7 @@
     <row r="68" spans="1:13" ht="12.75">
       <c r="A68" s="1"/>
       <c r="B68" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C68" s="8">
         <v>66</v>
@@ -3059,7 +3601,7 @@
     <row r="69" spans="1:13" ht="12.75">
       <c r="A69" s="1"/>
       <c r="B69" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C69" s="8">
         <v>67</v>
@@ -3078,7 +3620,7 @@
     <row r="70" spans="1:13" ht="12.75">
       <c r="A70" s="1"/>
       <c r="B70" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C70" s="8">
         <v>68</v>
@@ -3097,7 +3639,7 @@
     <row r="71" spans="1:13" ht="12.75">
       <c r="A71" s="1"/>
       <c r="B71" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C71" s="8">
         <v>69</v>
@@ -3116,7 +3658,7 @@
     <row r="72" spans="1:13" ht="12.75">
       <c r="A72" s="1"/>
       <c r="B72" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C72" s="8">
         <v>70</v>
@@ -3135,7 +3677,7 @@
     <row r="73" spans="1:13" ht="12.75">
       <c r="A73" s="1"/>
       <c r="B73" s="12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C73" s="8">
         <v>71</v>
@@ -3154,7 +3696,7 @@
     <row r="74" spans="1:13" ht="12.75">
       <c r="A74" s="1"/>
       <c r="B74" s="12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C74" s="8">
         <v>72</v>
@@ -3173,7 +3715,7 @@
     <row r="75" spans="1:13" ht="12.75">
       <c r="A75" s="1"/>
       <c r="B75" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C75" s="8">
         <v>73</v>
@@ -3192,7 +3734,7 @@
     <row r="76" spans="1:13" ht="12.75">
       <c r="A76" s="1"/>
       <c r="B76" s="12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C76" s="8">
         <v>74</v>
@@ -3226,7 +3768,7 @@
     <row r="78" spans="1:13" ht="12.75">
       <c r="A78" s="1"/>
       <c r="B78" s="19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C78" s="8">
         <v>75</v>
@@ -3245,7 +3787,7 @@
     <row r="79" spans="1:13" ht="12.75">
       <c r="A79" s="1"/>
       <c r="B79" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C79" s="8">
         <v>76</v>
@@ -3264,7 +3806,7 @@
     <row r="80" spans="1:13" ht="12.75">
       <c r="A80" s="1"/>
       <c r="B80" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C80" s="8">
         <v>77</v>
@@ -3283,7 +3825,7 @@
     <row r="81" spans="1:13" ht="12.75">
       <c r="A81" s="1"/>
       <c r="B81" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C81" s="8">
         <v>78</v>
@@ -3302,7 +3844,7 @@
     <row r="82" spans="1:13" ht="12.75">
       <c r="A82" s="1"/>
       <c r="B82" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C82" s="8">
         <v>79</v>
@@ -3321,7 +3863,7 @@
     <row r="83" spans="1:13" ht="12.75">
       <c r="A83" s="1"/>
       <c r="B83" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C83" s="8">
         <v>80</v>
@@ -3340,7 +3882,7 @@
     <row r="84" spans="1:13" ht="12.75">
       <c r="A84" s="1"/>
       <c r="B84" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C84" s="8">
         <v>81</v>
@@ -3359,7 +3901,7 @@
     <row r="85" spans="1:13" ht="12.75">
       <c r="A85" s="1"/>
       <c r="B85" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C85" s="8">
         <v>82</v>
@@ -3378,7 +3920,7 @@
     <row r="86" spans="1:13" ht="12.75">
       <c r="A86" s="1"/>
       <c r="B86" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C86" s="8">
         <v>83</v>
@@ -3397,7 +3939,7 @@
     <row r="87" spans="1:13" ht="12.75">
       <c r="A87" s="1"/>
       <c r="B87" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C87" s="8">
         <v>84</v>
@@ -3416,7 +3958,7 @@
     <row r="88" spans="1:13" ht="12.75">
       <c r="A88" s="1"/>
       <c r="B88" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C88" s="8">
         <v>85</v>
@@ -3435,7 +3977,7 @@
     <row r="89" spans="1:13" ht="12.75">
       <c r="A89" s="1"/>
       <c r="B89" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C89" s="8">
         <v>86</v>
@@ -3454,7 +3996,7 @@
     <row r="90" spans="1:13" ht="12.75">
       <c r="A90" s="1"/>
       <c r="B90" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C90" s="8">
         <v>87</v>
@@ -3473,7 +4015,7 @@
     <row r="91" spans="1:13" ht="12.75">
       <c r="A91" s="1"/>
       <c r="B91" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C91" s="8">
         <v>88</v>
@@ -3492,7 +4034,7 @@
     <row r="92" spans="1:13" ht="12.75">
       <c r="A92" s="1"/>
       <c r="B92" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C92" s="8">
         <v>89</v>
@@ -3511,7 +4053,7 @@
     <row r="93" spans="1:13" ht="12.75">
       <c r="A93" s="1"/>
       <c r="B93" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C93" s="8">
         <v>90</v>
@@ -3530,7 +4072,7 @@
     <row r="94" spans="1:13" ht="12.75">
       <c r="A94" s="1"/>
       <c r="B94" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C94" s="8">
         <v>91</v>
@@ -3549,7 +4091,7 @@
     <row r="95" spans="1:13" ht="12.75">
       <c r="A95" s="1"/>
       <c r="B95" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C95" s="8">
         <v>92</v>
@@ -3568,7 +4110,7 @@
     <row r="96" spans="1:13" ht="12.75">
       <c r="A96" s="1"/>
       <c r="B96" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C96" s="8">
         <v>93</v>
@@ -3587,7 +4129,7 @@
     <row r="97" spans="1:13" ht="12.75">
       <c r="A97" s="1"/>
       <c r="B97" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C97" s="8">
         <v>94</v>
@@ -3606,7 +4148,7 @@
     <row r="98" spans="1:13" ht="12.75">
       <c r="A98" s="1"/>
       <c r="B98" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C98" s="8">
         <v>95</v>
@@ -3625,7 +4167,7 @@
     <row r="99" spans="1:13" ht="12.75">
       <c r="A99" s="1"/>
       <c r="B99" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C99" s="8">
         <v>96</v>
@@ -3644,7 +4186,7 @@
     <row r="100" spans="1:13" ht="12.75">
       <c r="A100" s="1"/>
       <c r="B100" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C100" s="8">
         <v>97</v>
@@ -3663,7 +4205,7 @@
     <row r="101" spans="1:13" ht="12.75">
       <c r="A101" s="1"/>
       <c r="B101" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C101" s="8">
         <v>98</v>
@@ -3682,7 +4224,7 @@
     <row r="102" spans="1:13" ht="12.75">
       <c r="A102" s="1"/>
       <c r="B102" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C102" s="8">
         <v>99</v>
@@ -3701,7 +4243,7 @@
     <row r="103" spans="1:13" ht="12.75">
       <c r="A103" s="1"/>
       <c r="B103" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C103" s="8">
         <v>100</v>
@@ -3720,7 +4262,7 @@
     <row r="104" spans="1:13" ht="12.75">
       <c r="A104" s="1"/>
       <c r="B104" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C104" s="8">
         <v>101</v>
@@ -3739,7 +4281,7 @@
     <row r="105" spans="1:13" ht="12.75">
       <c r="A105" s="1"/>
       <c r="B105" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C105" s="8">
         <v>102</v>
@@ -3758,7 +4300,7 @@
     <row r="106" spans="1:13" ht="12.75">
       <c r="A106" s="1"/>
       <c r="B106" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C106" s="8">
         <v>103</v>
@@ -3777,7 +4319,7 @@
     <row r="107" spans="1:13" ht="12.75">
       <c r="A107" s="1"/>
       <c r="B107" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C107" s="8">
         <v>104</v>
@@ -3796,7 +4338,7 @@
     <row r="108" spans="1:13" ht="12.75">
       <c r="A108" s="1"/>
       <c r="B108" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C108" s="8">
         <v>105</v>
@@ -3815,7 +4357,7 @@
     <row r="109" spans="1:13" ht="12.75">
       <c r="A109" s="1"/>
       <c r="B109" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C109" s="8">
         <v>106</v>
@@ -3834,7 +4376,7 @@
     <row r="110" spans="1:13" ht="12.75">
       <c r="A110" s="1"/>
       <c r="B110" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C110" s="8">
         <v>107</v>
@@ -3853,7 +4395,7 @@
     <row r="111" spans="1:13" ht="12.75">
       <c r="A111" s="1"/>
       <c r="B111" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C111" s="8">
         <v>108</v>
@@ -3872,7 +4414,7 @@
     <row r="112" spans="1:13" ht="12.75">
       <c r="A112" s="1"/>
       <c r="B112" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C112" s="8">
         <v>109</v>
@@ -3891,7 +4433,7 @@
     <row r="113" spans="1:13" ht="12.75">
       <c r="A113" s="1"/>
       <c r="B113" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C113" s="8">
         <v>110</v>
@@ -3910,7 +4452,7 @@
     <row r="114" spans="1:13" ht="12.75">
       <c r="A114" s="1"/>
       <c r="B114" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C114" s="8">
         <v>111</v>
@@ -3929,7 +4471,7 @@
     <row r="115" spans="1:13" ht="12.75">
       <c r="A115" s="1"/>
       <c r="B115" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C115" s="8">
         <v>112</v>
@@ -3948,7 +4490,7 @@
     <row r="116" spans="1:13" ht="12.75">
       <c r="A116" s="1"/>
       <c r="B116" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C116" s="8">
         <v>113</v>
@@ -3967,7 +4509,7 @@
     <row r="117" spans="1:13" ht="12.75">
       <c r="A117" s="1"/>
       <c r="B117" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C117" s="8">
         <v>114</v>
@@ -3986,7 +4528,7 @@
     <row r="118" spans="1:13" ht="12.75">
       <c r="A118" s="1"/>
       <c r="B118" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C118" s="8">
         <v>115</v>
@@ -4005,7 +4547,7 @@
     <row r="119" spans="1:13" ht="12.75">
       <c r="A119" s="1"/>
       <c r="B119" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C119" s="8">
         <v>116</v>
@@ -4024,7 +4566,7 @@
     <row r="120" spans="1:13" ht="12.75">
       <c r="A120" s="1"/>
       <c r="B120" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C120" s="8">
         <v>117</v>
@@ -4043,7 +4585,7 @@
     <row r="121" spans="1:13" ht="12.75">
       <c r="A121" s="1"/>
       <c r="B121" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C121" s="8">
         <v>118</v>
@@ -4062,7 +4604,7 @@
     <row r="122" spans="1:13" ht="12.75">
       <c r="A122" s="1"/>
       <c r="B122" s="12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C122" s="8">
         <v>119</v>
@@ -4081,7 +4623,7 @@
     <row r="123" spans="1:13" ht="12.75">
       <c r="A123" s="1"/>
       <c r="B123" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C123" s="8">
         <v>120</v>
@@ -4115,7 +4657,7 @@
     <row r="125" spans="1:13" ht="12.75">
       <c r="A125" s="1"/>
       <c r="B125" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C125" s="8">
         <v>121</v>
@@ -4134,7 +4676,7 @@
     <row r="126" spans="1:13" ht="12.75">
       <c r="A126" s="1"/>
       <c r="B126" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C126" s="8">
         <v>122</v>
@@ -4153,7 +4695,7 @@
     <row r="127" spans="1:13" ht="12.75">
       <c r="A127" s="1"/>
       <c r="B127" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C127" s="8">
         <v>123</v>
@@ -4172,7 +4714,7 @@
     <row r="128" spans="1:13" ht="12.75">
       <c r="A128" s="1"/>
       <c r="B128" s="12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C128" s="8">
         <v>124</v>
@@ -4191,7 +4733,7 @@
     <row r="129" spans="1:13" ht="12.75">
       <c r="A129" s="1"/>
       <c r="B129" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C129" s="8">
         <v>125</v>
@@ -4210,7 +4752,7 @@
     <row r="130" spans="1:13" ht="12.75">
       <c r="A130" s="1"/>
       <c r="B130" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C130" s="8">
         <v>126</v>
@@ -4229,7 +4771,7 @@
     <row r="131" spans="1:13" ht="12.75">
       <c r="A131" s="1"/>
       <c r="B131" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C131" s="8">
         <v>127</v>
@@ -4248,7 +4790,7 @@
     <row r="132" spans="1:13" ht="12.75">
       <c r="A132" s="1"/>
       <c r="B132" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C132" s="8">
         <v>128</v>
@@ -4267,7 +4809,7 @@
     <row r="133" spans="1:13" ht="12.75">
       <c r="A133" s="1"/>
       <c r="B133" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C133" s="8">
         <v>129</v>
@@ -4286,7 +4828,7 @@
     <row r="134" spans="1:13" ht="12.75">
       <c r="A134" s="1"/>
       <c r="B134" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C134" s="8">
         <v>130</v>
@@ -4303,7 +4845,7 @@
       <c r="M134" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B50:B54"/>
     <mergeCell ref="B56:B57"/>
@@ -4313,6 +4855,7 @@
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B6:B8"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="1">
@@ -4326,8 +4869,11 @@
     <hyperlink ref="G5" r:id="rId3" xr:uid="{6DEDBC63-47F0-4182-B687-AAF3E5463F94}"/>
     <hyperlink ref="G6" r:id="rId4" xr:uid="{4D4187D9-4C4F-4F5E-8ACA-AAE2096D90ED}"/>
     <hyperlink ref="G7" r:id="rId5" xr:uid="{4351EF49-235B-4696-9204-E090215258C8}"/>
+    <hyperlink ref="G8" r:id="rId6" xr:uid="{D568FD3D-0BC3-44FF-8916-D0F6A9D4D746}"/>
+    <hyperlink ref="G9" r:id="rId7" xr:uid="{BA766557-B733-4A2C-A8B7-E3D99120B30B}"/>
+    <hyperlink ref="G10" r:id="rId8" xr:uid="{C7A064CC-A217-4DBA-9954-EE873ED231D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>